--- a/Code/Results/Cases/Case_2_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.823263580639576</v>
+        <v>1.823263580639463</v>
       </c>
       <c r="C2">
-        <v>0.6855629741338589</v>
+        <v>0.6855629741333757</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.008809514130677876</v>
+        <v>0.008809514130704521</v>
       </c>
       <c r="F2">
-        <v>2.08652392787107</v>
+        <v>2.086523927871099</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>1.797560794438525</v>
       </c>
       <c r="I2">
-        <v>0.2296591792397287</v>
+        <v>0.229659179239718</v>
       </c>
       <c r="J2">
-        <v>0.5779305898802676</v>
+        <v>0.5779305898802818</v>
       </c>
       <c r="K2">
-        <v>0.1013338170809241</v>
+        <v>0.1013338170809455</v>
       </c>
       <c r="L2">
-        <v>0.4723745101206802</v>
+        <v>0.4723745101206731</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.569728101417809</v>
+        <v>1.569728101417581</v>
       </c>
       <c r="C3">
-        <v>0.5889021548009623</v>
+        <v>0.5889021548007349</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.007694488158183965</v>
+        <v>0.007694488158216828</v>
       </c>
       <c r="F3">
         <v>1.826617577449625</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.632190828578828</v>
+        <v>1.6321908285788</v>
       </c>
       <c r="I3">
-        <v>0.2227796565617659</v>
+        <v>0.2227796565617695</v>
       </c>
       <c r="J3">
-        <v>0.4972250323643337</v>
+        <v>0.4972250323643195</v>
       </c>
       <c r="K3">
-        <v>0.08741334175053694</v>
+        <v>0.08741334175055826</v>
       </c>
       <c r="L3">
-        <v>0.4069799773603435</v>
+        <v>0.4069799773603293</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.416635965751482</v>
+        <v>1.416635965751595</v>
       </c>
       <c r="C4">
-        <v>0.5306990380853449</v>
+        <v>0.5306990380850891</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.007013012827504994</v>
+        <v>0.007013012827514764</v>
       </c>
       <c r="F4">
-        <v>1.670419811702303</v>
+        <v>1.670419811702288</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.533717836439848</v>
+        <v>1.533717836439834</v>
       </c>
       <c r="I4">
-        <v>0.2188233424633808</v>
+        <v>0.218823342463363</v>
       </c>
       <c r="J4">
-        <v>0.448533931744258</v>
+        <v>0.4485339317442367</v>
       </c>
       <c r="K4">
         <v>0.0789906458655345</v>
       </c>
       <c r="L4">
-        <v>0.3674616899918348</v>
+        <v>0.3674616899918206</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.354802569704162</v>
+        <v>1.354802569704049</v>
       </c>
       <c r="C5">
-        <v>0.5072257291229221</v>
+        <v>0.5072257291233484</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.006736075485405557</v>
+        <v>0.006736075485371806</v>
       </c>
       <c r="F5">
         <v>1.607516281364624</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.494273548645452</v>
+        <v>1.494273548645467</v>
       </c>
       <c r="I5">
-        <v>0.2172714438395822</v>
+        <v>0.2172714438395857</v>
       </c>
       <c r="J5">
-        <v>0.4288765270670396</v>
+        <v>0.4288765270670538</v>
       </c>
       <c r="K5">
-        <v>0.07558529958155802</v>
+        <v>0.0755852995815296</v>
       </c>
       <c r="L5">
         <v>0.3514940991173319</v>
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.344565938385131</v>
+        <v>1.344565938385102</v>
       </c>
       <c r="C6">
-        <v>0.5033416010927283</v>
+        <v>0.5033416010925293</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.006690136082355913</v>
+        <v>0.006690136082360354</v>
       </c>
       <c r="F6">
-        <v>1.597113538908545</v>
+        <v>1.597113538908559</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.487762791684958</v>
+        <v>1.487762791685</v>
       </c>
       <c r="I6">
-        <v>0.2170172039433318</v>
+        <v>0.2170172039433389</v>
       </c>
       <c r="J6">
-        <v>0.4256226926634028</v>
+        <v>0.4256226926633886</v>
       </c>
       <c r="K6">
-        <v>0.07502135310869562</v>
+        <v>0.0750213531086743</v>
       </c>
       <c r="L6">
-        <v>0.3488502972812029</v>
+        <v>0.34885029728121</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.415799940608508</v>
+        <v>1.41579994060848</v>
       </c>
       <c r="C7">
-        <v>0.5303815316982252</v>
+        <v>0.5303815316981968</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.007009274867806781</v>
+        <v>0.007009274867805892</v>
       </c>
       <c r="F7">
         <v>1.669568572933244</v>
@@ -623,16 +623,16 @@
         <v>1.533183215433993</v>
       </c>
       <c r="I7">
-        <v>0.2188021775058822</v>
+        <v>0.2188021775058751</v>
       </c>
       <c r="J7">
         <v>0.4482681181160046</v>
       </c>
       <c r="K7">
-        <v>0.07894461645500428</v>
+        <v>0.07894461645501849</v>
       </c>
       <c r="L7">
-        <v>0.367245822067396</v>
+        <v>0.3672458220673889</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.735248601288419</v>
+        <v>1.735248601288646</v>
       </c>
       <c r="C8">
-        <v>0.6519687640385428</v>
+        <v>0.6519687640387417</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.008424382555770826</v>
+        <v>0.008424382555786813</v>
       </c>
       <c r="F8">
-        <v>1.99614072542694</v>
+        <v>1.996140725426955</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.739850726093607</v>
+        <v>1.739850726093636</v>
       </c>
       <c r="I8">
-        <v>0.2272271262430969</v>
+        <v>0.2272271262430863</v>
       </c>
       <c r="J8">
-        <v>0.5499039304203848</v>
+        <v>0.5499039304203777</v>
       </c>
       <c r="K8">
-        <v>0.09650545778580266</v>
+        <v>0.09650545778580621</v>
       </c>
       <c r="L8">
-        <v>0.449680301095519</v>
+        <v>0.4496803010955261</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.387009501975001</v>
+        <v>2.387009501975058</v>
       </c>
       <c r="C9">
-        <v>0.9017076779487923</v>
+        <v>0.9017076779485365</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01122582447377773</v>
+        <v>0.01122582447371379</v>
       </c>
       <c r="F9">
         <v>2.668564917949936</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.173778242455199</v>
+        <v>2.173778242455214</v>
       </c>
       <c r="I9">
-        <v>0.2462277905502752</v>
+        <v>0.2462277905503001</v>
       </c>
       <c r="J9">
-        <v>0.7576892217389926</v>
+        <v>0.7576892217389712</v>
       </c>
       <c r="K9">
-        <v>0.1321480403112361</v>
+        <v>0.1321480403112645</v>
       </c>
       <c r="L9">
         <v>0.6175297439168972</v>
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.889004055653288</v>
+        <v>2.889004055653118</v>
       </c>
       <c r="C10">
         <v>1.095592578476499</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.01330249403759431</v>
+        <v>0.01330249403756945</v>
       </c>
       <c r="F10">
         <v>3.190171077958439</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.516866647342212</v>
+        <v>2.516866647342198</v>
       </c>
       <c r="I10">
-        <v>0.262265686421685</v>
+        <v>0.2622656864216886</v>
       </c>
       <c r="J10">
-        <v>0.9181143197909307</v>
+        <v>0.9181143197909449</v>
       </c>
       <c r="K10">
-        <v>0.1594105294813346</v>
+        <v>0.1594105294813204</v>
       </c>
       <c r="L10">
         <v>0.7464637620422181</v>
@@ -757,16 +757,16 @@
         <v>3.124428659888281</v>
       </c>
       <c r="C11">
-        <v>1.186981963937853</v>
+        <v>1.186981963938081</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01425181371365802</v>
+        <v>0.01425181371366513</v>
       </c>
       <c r="F11">
-        <v>3.435529652504613</v>
+        <v>3.435529652504584</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>2.679993435506418</v>
       </c>
       <c r="I11">
-        <v>0.2701641082666697</v>
+        <v>0.2701641082666519</v>
       </c>
       <c r="J11">
-        <v>0.9934663034590159</v>
+        <v>0.9934663034589306</v>
       </c>
       <c r="K11">
-        <v>0.1721342826018777</v>
+        <v>0.1721342826019061</v>
       </c>
       <c r="L11">
         <v>0.806818384497852</v>
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.214792484068823</v>
+        <v>3.214792484069051</v>
       </c>
       <c r="C12">
-        <v>1.222138867679973</v>
+        <v>1.222138867680201</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.01461201025118797</v>
+        <v>0.01461201025114534</v>
       </c>
       <c r="F12">
-        <v>3.529802357983556</v>
+        <v>3.529802357983584</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.742952442891607</v>
+        <v>2.742952442891635</v>
       </c>
       <c r="I12">
-        <v>0.2732567624346522</v>
+        <v>0.2732567624346771</v>
       </c>
       <c r="J12">
         <v>1.022408655068588</v>
       </c>
       <c r="K12">
-        <v>0.1770071395968813</v>
+        <v>0.1770071395968991</v>
       </c>
       <c r="L12">
-        <v>0.8299645187073637</v>
+        <v>0.8299645187073281</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,13 +833,13 @@
         <v>3.195273571988025</v>
       </c>
       <c r="C13">
-        <v>1.214541150060143</v>
+        <v>1.214541150060313</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.01453440317735755</v>
+        <v>0.01453440317738242</v>
       </c>
       <c r="F13">
         <v>3.509435059615072</v>
@@ -851,16 +851,16 @@
         <v>2.729337320180775</v>
       </c>
       <c r="I13">
-        <v>0.2725859156665535</v>
+        <v>0.2725859156665749</v>
       </c>
       <c r="J13">
         <v>1.01615607387734</v>
       </c>
       <c r="K13">
-        <v>0.1759551071210801</v>
+        <v>0.175955107121041</v>
       </c>
       <c r="L13">
-        <v>0.8249658242959157</v>
+        <v>0.8249658242959086</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.131837384388746</v>
+        <v>3.131837384388803</v>
       </c>
       <c r="C14">
-        <v>1.18986275499725</v>
+        <v>1.189862754996909</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.01428143281067484</v>
+        <v>0.01428143281064465</v>
       </c>
       <c r="F14">
-        <v>3.443257015349872</v>
+        <v>3.443257015349843</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.685148259035444</v>
+        <v>2.685148259035401</v>
       </c>
       <c r="I14">
-        <v>0.2704164099489077</v>
+        <v>0.2704164099489006</v>
       </c>
       <c r="J14">
-        <v>0.9958388083957885</v>
+        <v>0.995838808395817</v>
       </c>
       <c r="K14">
-        <v>0.1725340284169796</v>
+        <v>0.1725340284169441</v>
       </c>
       <c r="L14">
-        <v>0.8087165060483699</v>
+        <v>0.8087165060483343</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,25 +909,25 @@
         <v>3.093145311659043</v>
       </c>
       <c r="C15">
-        <v>1.174821054463848</v>
+        <v>1.174821054463621</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.01412657495243508</v>
+        <v>0.01412657495247061</v>
       </c>
       <c r="F15">
-        <v>3.402904634907202</v>
+        <v>3.402904634907173</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.658241218963099</v>
+        <v>2.658241218963113</v>
       </c>
       <c r="I15">
-        <v>0.2691012557407042</v>
+        <v>0.2691012557407433</v>
       </c>
       <c r="J15">
         <v>0.983449210706155</v>
@@ -936,7 +936,7 @@
         <v>0.1704459026110463</v>
       </c>
       <c r="L15">
-        <v>0.7988027369294528</v>
+        <v>0.7988027369294315</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.873776912725475</v>
+        <v>2.873776912725589</v>
       </c>
       <c r="C16">
-        <v>1.089691730084184</v>
+        <v>1.089691730084439</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.01324055062395679</v>
+        <v>0.01324055062395502</v>
       </c>
       <c r="F16">
         <v>3.174315284865827</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.506362036479644</v>
+        <v>2.506362036479629</v>
       </c>
       <c r="I16">
-        <v>0.2617628647546226</v>
+        <v>0.2617628647546013</v>
       </c>
       <c r="J16">
-        <v>0.9132431479501406</v>
+        <v>0.9132431479501264</v>
       </c>
       <c r="K16">
-        <v>0.1585861697819055</v>
+        <v>0.1585861697819482</v>
       </c>
       <c r="L16">
-        <v>0.7425575120574308</v>
+        <v>0.7425575120574166</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.74114276292255</v>
+        <v>2.741142762922721</v>
       </c>
       <c r="C17">
-        <v>1.03834527216452</v>
+        <v>1.038345272164833</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.01269821972835672</v>
+        <v>0.01269821972837093</v>
       </c>
       <c r="F17">
-        <v>3.036285521342194</v>
+        <v>3.036285521342222</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.415110814783375</v>
+        <v>2.415110814783404</v>
       </c>
       <c r="I17">
-        <v>0.2574253317183093</v>
+        <v>0.2574253317182986</v>
       </c>
       <c r="J17">
-        <v>0.8708265210570403</v>
+        <v>0.8708265210570119</v>
       </c>
       <c r="K17">
-        <v>0.1513986689992635</v>
+        <v>0.1513986689992706</v>
       </c>
       <c r="L17">
-        <v>0.7085198039718534</v>
+        <v>0.7085198039718321</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.665506664949589</v>
+        <v>2.66550666494976</v>
       </c>
       <c r="C18">
-        <v>1.009106234060852</v>
+        <v>1.009106234060908</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.01238671852480522</v>
+        <v>0.01238671852481232</v>
       </c>
       <c r="F18">
-        <v>2.957641349781028</v>
+        <v>2.957641349780999</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2.363277880675582</v>
+        <v>2.363277880675611</v>
       </c>
       <c r="I18">
-        <v>0.2549861995762512</v>
+        <v>0.2549861995762477</v>
       </c>
       <c r="J18">
-        <v>0.8466484951384246</v>
+        <v>0.8466484951383961</v>
       </c>
       <c r="K18">
-        <v>0.1472943482915632</v>
+        <v>0.1472943482916023</v>
       </c>
       <c r="L18">
         <v>0.6890992690489099</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.640003924614632</v>
+        <v>2.640003924614803</v>
       </c>
       <c r="C19">
-        <v>0.9992543534704339</v>
+        <v>0.9992543534708886</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.01228132269937277</v>
+        <v>0.01228132269935855</v>
       </c>
       <c r="F19">
         <v>2.931136418239078</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.345835325799882</v>
+        <v>2.345835325799911</v>
       </c>
       <c r="I19">
         <v>0.2541694981512563</v>
       </c>
       <c r="J19">
-        <v>0.8384979473985794</v>
+        <v>0.8384979473985936</v>
       </c>
       <c r="K19">
-        <v>0.1459095663515164</v>
+        <v>0.14590956635152</v>
       </c>
       <c r="L19">
-        <v>0.6825494738625011</v>
+        <v>0.682549473862494</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.75519312031895</v>
+        <v>2.755193120319007</v>
       </c>
       <c r="C20">
-        <v>1.043780137648071</v>
+        <v>1.043780137647616</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01275590664082671</v>
+        <v>0.01275590664082848</v>
       </c>
       <c r="F20">
         <v>3.050900365079713</v>
@@ -1117,13 +1117,13 @@
         <v>2.424755977079883</v>
       </c>
       <c r="I20">
-        <v>0.2578812032133797</v>
+        <v>0.2578812032133833</v>
       </c>
       <c r="J20">
-        <v>0.8753187355662817</v>
+        <v>0.8753187355663101</v>
       </c>
       <c r="K20">
-        <v>0.1521606556895101</v>
+        <v>0.1521606556895136</v>
       </c>
       <c r="L20">
         <v>0.7121266060129159</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.150435468969249</v>
+        <v>3.150435468969192</v>
       </c>
       <c r="C21">
-        <v>1.197095683477755</v>
+        <v>1.197095683477301</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.01435571670898916</v>
+        <v>0.01435571670906555</v>
       </c>
       <c r="F21">
-        <v>3.462656458074207</v>
+        <v>3.462656458074179</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.698093963387635</v>
+        <v>2.69809396338762</v>
       </c>
       <c r="I21">
-        <v>0.2710507545795586</v>
+        <v>0.2710507545795942</v>
       </c>
       <c r="J21">
         <v>1.001794820497736</v>
       </c>
       <c r="K21">
-        <v>0.1735373268957829</v>
+        <v>0.1735373268957474</v>
       </c>
       <c r="L21">
         <v>0.8134810197426887</v>
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.415937493264266</v>
+        <v>3.41593749326438</v>
       </c>
       <c r="C22">
-        <v>1.300553368682586</v>
+        <v>1.300553368682529</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.01540544539511401</v>
+        <v>0.01540544539509092</v>
       </c>
       <c r="F22">
-        <v>3.73980729725136</v>
+        <v>3.739807297251332</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.883750228456051</v>
+        <v>2.883750228456023</v>
       </c>
       <c r="I22">
-        <v>0.2802593920906915</v>
+        <v>0.2802593920906666</v>
       </c>
       <c r="J22">
-        <v>1.086872206381713</v>
+        <v>1.086872206381727</v>
       </c>
       <c r="K22">
-        <v>0.1878314636336285</v>
+        <v>0.1878314636336391</v>
       </c>
       <c r="L22">
-        <v>0.8814456390591445</v>
+        <v>0.8814456390591303</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.273502956561629</v>
+        <v>3.273502956561799</v>
       </c>
       <c r="C23">
-        <v>1.245004162878899</v>
+        <v>1.245004162879127</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.01484478929388189</v>
+        <v>0.01484478929383926</v>
       </c>
       <c r="F23">
-        <v>3.591077441059724</v>
+        <v>3.591077441059696</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.783956633267479</v>
+        <v>2.783956633267522</v>
       </c>
       <c r="I23">
-        <v>0.2752838989133863</v>
+        <v>0.2752838989134112</v>
       </c>
       <c r="J23">
-        <v>1.041218733156072</v>
+        <v>1.0412187331561</v>
       </c>
       <c r="K23">
-        <v>0.1801697754240941</v>
+        <v>0.1801697754240905</v>
       </c>
       <c r="L23">
         <v>0.8449967791482536</v>
@@ -1251,34 +1251,34 @@
         <v>2.748839046339583</v>
       </c>
       <c r="C24">
-        <v>1.041322167253981</v>
+        <v>1.041322167253753</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.01272982548123913</v>
+        <v>0.01272982548128176</v>
       </c>
       <c r="F24">
-        <v>3.04429079439052</v>
+        <v>3.044290794390491</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.420393453909682</v>
+        <v>2.420393453909668</v>
       </c>
       <c r="I24">
-        <v>0.2576749348304617</v>
+        <v>0.2576749348304475</v>
       </c>
       <c r="J24">
-        <v>0.8732871628709518</v>
+        <v>0.8732871628709233</v>
       </c>
       <c r="K24">
-        <v>0.1518160753172282</v>
+        <v>0.1518160753172175</v>
       </c>
       <c r="L24">
-        <v>0.7104955126286256</v>
+        <v>0.7104955126286399</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.207242720131831</v>
+        <v>2.207242720131603</v>
       </c>
       <c r="C25">
-        <v>0.8326012346854554</v>
+        <v>0.8326012346849154</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.01046490187876969</v>
+        <v>0.01046490187882121</v>
       </c>
       <c r="F25">
-        <v>2.482451871274549</v>
+        <v>2.482451871274492</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.052667298860129</v>
+        <v>2.052667298860101</v>
       </c>
       <c r="I25">
-        <v>0.2407682683970513</v>
+        <v>0.2407682683970265</v>
       </c>
       <c r="J25">
         <v>0.7003219559423997</v>
       </c>
       <c r="K25">
-        <v>0.122343810621345</v>
+        <v>0.1223438106213734</v>
       </c>
       <c r="L25">
-        <v>0.5712824168477724</v>
+        <v>0.5712824168477795</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.823263580639463</v>
+        <v>1.823263580639576</v>
       </c>
       <c r="C2">
-        <v>0.6855629741333757</v>
+        <v>0.6855629741338589</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.008809514130704521</v>
+        <v>0.008809514130677876</v>
       </c>
       <c r="F2">
-        <v>2.086523927871099</v>
+        <v>2.08652392787107</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>1.797560794438525</v>
       </c>
       <c r="I2">
-        <v>0.229659179239718</v>
+        <v>0.2296591792397287</v>
       </c>
       <c r="J2">
-        <v>0.5779305898802818</v>
+        <v>0.5779305898802676</v>
       </c>
       <c r="K2">
-        <v>0.1013338170809455</v>
+        <v>0.1013338170809241</v>
       </c>
       <c r="L2">
-        <v>0.4723745101206731</v>
+        <v>0.4723745101206802</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.569728101417581</v>
+        <v>1.569728101417809</v>
       </c>
       <c r="C3">
-        <v>0.5889021548007349</v>
+        <v>0.5889021548009623</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.007694488158216828</v>
+        <v>0.007694488158183965</v>
       </c>
       <c r="F3">
         <v>1.826617577449625</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.6321908285788</v>
+        <v>1.632190828578828</v>
       </c>
       <c r="I3">
-        <v>0.2227796565617695</v>
+        <v>0.2227796565617659</v>
       </c>
       <c r="J3">
-        <v>0.4972250323643195</v>
+        <v>0.4972250323643337</v>
       </c>
       <c r="K3">
-        <v>0.08741334175055826</v>
+        <v>0.08741334175053694</v>
       </c>
       <c r="L3">
-        <v>0.4069799773603293</v>
+        <v>0.4069799773603435</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.416635965751595</v>
+        <v>1.416635965751482</v>
       </c>
       <c r="C4">
-        <v>0.5306990380850891</v>
+        <v>0.5306990380853449</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.007013012827514764</v>
+        <v>0.007013012827504994</v>
       </c>
       <c r="F4">
-        <v>1.670419811702288</v>
+        <v>1.670419811702303</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.533717836439834</v>
+        <v>1.533717836439848</v>
       </c>
       <c r="I4">
-        <v>0.218823342463363</v>
+        <v>0.2188233424633808</v>
       </c>
       <c r="J4">
-        <v>0.4485339317442367</v>
+        <v>0.448533931744258</v>
       </c>
       <c r="K4">
         <v>0.0789906458655345</v>
       </c>
       <c r="L4">
-        <v>0.3674616899918206</v>
+        <v>0.3674616899918348</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.354802569704049</v>
+        <v>1.354802569704162</v>
       </c>
       <c r="C5">
-        <v>0.5072257291233484</v>
+        <v>0.5072257291229221</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.006736075485371806</v>
+        <v>0.006736075485405557</v>
       </c>
       <c r="F5">
         <v>1.607516281364624</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.494273548645467</v>
+        <v>1.494273548645452</v>
       </c>
       <c r="I5">
-        <v>0.2172714438395857</v>
+        <v>0.2172714438395822</v>
       </c>
       <c r="J5">
-        <v>0.4288765270670538</v>
+        <v>0.4288765270670396</v>
       </c>
       <c r="K5">
-        <v>0.0755852995815296</v>
+        <v>0.07558529958155802</v>
       </c>
       <c r="L5">
         <v>0.3514940991173319</v>
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.344565938385102</v>
+        <v>1.344565938385131</v>
       </c>
       <c r="C6">
-        <v>0.5033416010925293</v>
+        <v>0.5033416010927283</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.006690136082360354</v>
+        <v>0.006690136082355913</v>
       </c>
       <c r="F6">
-        <v>1.597113538908559</v>
+        <v>1.597113538908545</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.487762791685</v>
+        <v>1.487762791684958</v>
       </c>
       <c r="I6">
-        <v>0.2170172039433389</v>
+        <v>0.2170172039433318</v>
       </c>
       <c r="J6">
-        <v>0.4256226926633886</v>
+        <v>0.4256226926634028</v>
       </c>
       <c r="K6">
-        <v>0.0750213531086743</v>
+        <v>0.07502135310869562</v>
       </c>
       <c r="L6">
-        <v>0.34885029728121</v>
+        <v>0.3488502972812029</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.41579994060848</v>
+        <v>1.415799940608508</v>
       </c>
       <c r="C7">
-        <v>0.5303815316981968</v>
+        <v>0.5303815316982252</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.007009274867805892</v>
+        <v>0.007009274867806781</v>
       </c>
       <c r="F7">
         <v>1.669568572933244</v>
@@ -623,16 +623,16 @@
         <v>1.533183215433993</v>
       </c>
       <c r="I7">
-        <v>0.2188021775058751</v>
+        <v>0.2188021775058822</v>
       </c>
       <c r="J7">
         <v>0.4482681181160046</v>
       </c>
       <c r="K7">
-        <v>0.07894461645501849</v>
+        <v>0.07894461645500428</v>
       </c>
       <c r="L7">
-        <v>0.3672458220673889</v>
+        <v>0.367245822067396</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.735248601288646</v>
+        <v>1.735248601288419</v>
       </c>
       <c r="C8">
-        <v>0.6519687640387417</v>
+        <v>0.6519687640385428</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.008424382555786813</v>
+        <v>0.008424382555770826</v>
       </c>
       <c r="F8">
-        <v>1.996140725426955</v>
+        <v>1.99614072542694</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.739850726093636</v>
+        <v>1.739850726093607</v>
       </c>
       <c r="I8">
-        <v>0.2272271262430863</v>
+        <v>0.2272271262430969</v>
       </c>
       <c r="J8">
-        <v>0.5499039304203777</v>
+        <v>0.5499039304203848</v>
       </c>
       <c r="K8">
-        <v>0.09650545778580621</v>
+        <v>0.09650545778580266</v>
       </c>
       <c r="L8">
-        <v>0.4496803010955261</v>
+        <v>0.449680301095519</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.387009501975058</v>
+        <v>2.387009501975001</v>
       </c>
       <c r="C9">
-        <v>0.9017076779485365</v>
+        <v>0.9017076779487923</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01122582447371379</v>
+        <v>0.01122582447377773</v>
       </c>
       <c r="F9">
         <v>2.668564917949936</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.173778242455214</v>
+        <v>2.173778242455199</v>
       </c>
       <c r="I9">
-        <v>0.2462277905503001</v>
+        <v>0.2462277905502752</v>
       </c>
       <c r="J9">
-        <v>0.7576892217389712</v>
+        <v>0.7576892217389926</v>
       </c>
       <c r="K9">
-        <v>0.1321480403112645</v>
+        <v>0.1321480403112361</v>
       </c>
       <c r="L9">
         <v>0.6175297439168972</v>
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.889004055653118</v>
+        <v>2.889004055653288</v>
       </c>
       <c r="C10">
         <v>1.095592578476499</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.01330249403756945</v>
+        <v>0.01330249403759431</v>
       </c>
       <c r="F10">
         <v>3.190171077958439</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.516866647342198</v>
+        <v>2.516866647342212</v>
       </c>
       <c r="I10">
-        <v>0.2622656864216886</v>
+        <v>0.262265686421685</v>
       </c>
       <c r="J10">
-        <v>0.9181143197909449</v>
+        <v>0.9181143197909307</v>
       </c>
       <c r="K10">
-        <v>0.1594105294813204</v>
+        <v>0.1594105294813346</v>
       </c>
       <c r="L10">
         <v>0.7464637620422181</v>
@@ -757,16 +757,16 @@
         <v>3.124428659888281</v>
       </c>
       <c r="C11">
-        <v>1.186981963938081</v>
+        <v>1.186981963937853</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01425181371366513</v>
+        <v>0.01425181371365802</v>
       </c>
       <c r="F11">
-        <v>3.435529652504584</v>
+        <v>3.435529652504613</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>2.679993435506418</v>
       </c>
       <c r="I11">
-        <v>0.2701641082666519</v>
+        <v>0.2701641082666697</v>
       </c>
       <c r="J11">
-        <v>0.9934663034589306</v>
+        <v>0.9934663034590159</v>
       </c>
       <c r="K11">
-        <v>0.1721342826019061</v>
+        <v>0.1721342826018777</v>
       </c>
       <c r="L11">
         <v>0.806818384497852</v>
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.214792484069051</v>
+        <v>3.214792484068823</v>
       </c>
       <c r="C12">
-        <v>1.222138867680201</v>
+        <v>1.222138867679973</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.01461201025114534</v>
+        <v>0.01461201025118797</v>
       </c>
       <c r="F12">
-        <v>3.529802357983584</v>
+        <v>3.529802357983556</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.742952442891635</v>
+        <v>2.742952442891607</v>
       </c>
       <c r="I12">
-        <v>0.2732567624346771</v>
+        <v>0.2732567624346522</v>
       </c>
       <c r="J12">
         <v>1.022408655068588</v>
       </c>
       <c r="K12">
-        <v>0.1770071395968991</v>
+        <v>0.1770071395968813</v>
       </c>
       <c r="L12">
-        <v>0.8299645187073281</v>
+        <v>0.8299645187073637</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,13 +833,13 @@
         <v>3.195273571988025</v>
       </c>
       <c r="C13">
-        <v>1.214541150060313</v>
+        <v>1.214541150060143</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.01453440317738242</v>
+        <v>0.01453440317735755</v>
       </c>
       <c r="F13">
         <v>3.509435059615072</v>
@@ -851,16 +851,16 @@
         <v>2.729337320180775</v>
       </c>
       <c r="I13">
-        <v>0.2725859156665749</v>
+        <v>0.2725859156665535</v>
       </c>
       <c r="J13">
         <v>1.01615607387734</v>
       </c>
       <c r="K13">
-        <v>0.175955107121041</v>
+        <v>0.1759551071210801</v>
       </c>
       <c r="L13">
-        <v>0.8249658242959086</v>
+        <v>0.8249658242959157</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.131837384388803</v>
+        <v>3.131837384388746</v>
       </c>
       <c r="C14">
-        <v>1.189862754996909</v>
+        <v>1.18986275499725</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.01428143281064465</v>
+        <v>0.01428143281067484</v>
       </c>
       <c r="F14">
-        <v>3.443257015349843</v>
+        <v>3.443257015349872</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.685148259035401</v>
+        <v>2.685148259035444</v>
       </c>
       <c r="I14">
-        <v>0.2704164099489006</v>
+        <v>0.2704164099489077</v>
       </c>
       <c r="J14">
-        <v>0.995838808395817</v>
+        <v>0.9958388083957885</v>
       </c>
       <c r="K14">
-        <v>0.1725340284169441</v>
+        <v>0.1725340284169796</v>
       </c>
       <c r="L14">
-        <v>0.8087165060483343</v>
+        <v>0.8087165060483699</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,25 +909,25 @@
         <v>3.093145311659043</v>
       </c>
       <c r="C15">
-        <v>1.174821054463621</v>
+        <v>1.174821054463848</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.01412657495247061</v>
+        <v>0.01412657495243508</v>
       </c>
       <c r="F15">
-        <v>3.402904634907173</v>
+        <v>3.402904634907202</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.658241218963113</v>
+        <v>2.658241218963099</v>
       </c>
       <c r="I15">
-        <v>0.2691012557407433</v>
+        <v>0.2691012557407042</v>
       </c>
       <c r="J15">
         <v>0.983449210706155</v>
@@ -936,7 +936,7 @@
         <v>0.1704459026110463</v>
       </c>
       <c r="L15">
-        <v>0.7988027369294315</v>
+        <v>0.7988027369294528</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.873776912725589</v>
+        <v>2.873776912725475</v>
       </c>
       <c r="C16">
-        <v>1.089691730084439</v>
+        <v>1.089691730084184</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.01324055062395502</v>
+        <v>0.01324055062395679</v>
       </c>
       <c r="F16">
         <v>3.174315284865827</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.506362036479629</v>
+        <v>2.506362036479644</v>
       </c>
       <c r="I16">
-        <v>0.2617628647546013</v>
+        <v>0.2617628647546226</v>
       </c>
       <c r="J16">
-        <v>0.9132431479501264</v>
+        <v>0.9132431479501406</v>
       </c>
       <c r="K16">
-        <v>0.1585861697819482</v>
+        <v>0.1585861697819055</v>
       </c>
       <c r="L16">
-        <v>0.7425575120574166</v>
+        <v>0.7425575120574308</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.741142762922721</v>
+        <v>2.74114276292255</v>
       </c>
       <c r="C17">
-        <v>1.038345272164833</v>
+        <v>1.03834527216452</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.01269821972837093</v>
+        <v>0.01269821972835672</v>
       </c>
       <c r="F17">
-        <v>3.036285521342222</v>
+        <v>3.036285521342194</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.415110814783404</v>
+        <v>2.415110814783375</v>
       </c>
       <c r="I17">
-        <v>0.2574253317182986</v>
+        <v>0.2574253317183093</v>
       </c>
       <c r="J17">
-        <v>0.8708265210570119</v>
+        <v>0.8708265210570403</v>
       </c>
       <c r="K17">
-        <v>0.1513986689992706</v>
+        <v>0.1513986689992635</v>
       </c>
       <c r="L17">
-        <v>0.7085198039718321</v>
+        <v>0.7085198039718534</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.66550666494976</v>
+        <v>2.665506664949589</v>
       </c>
       <c r="C18">
-        <v>1.009106234060908</v>
+        <v>1.009106234060852</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.01238671852481232</v>
+        <v>0.01238671852480522</v>
       </c>
       <c r="F18">
-        <v>2.957641349780999</v>
+        <v>2.957641349781028</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2.363277880675611</v>
+        <v>2.363277880675582</v>
       </c>
       <c r="I18">
-        <v>0.2549861995762477</v>
+        <v>0.2549861995762512</v>
       </c>
       <c r="J18">
-        <v>0.8466484951383961</v>
+        <v>0.8466484951384246</v>
       </c>
       <c r="K18">
-        <v>0.1472943482916023</v>
+        <v>0.1472943482915632</v>
       </c>
       <c r="L18">
         <v>0.6890992690489099</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.640003924614803</v>
+        <v>2.640003924614632</v>
       </c>
       <c r="C19">
-        <v>0.9992543534708886</v>
+        <v>0.9992543534704339</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.01228132269935855</v>
+        <v>0.01228132269937277</v>
       </c>
       <c r="F19">
         <v>2.931136418239078</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.345835325799911</v>
+        <v>2.345835325799882</v>
       </c>
       <c r="I19">
         <v>0.2541694981512563</v>
       </c>
       <c r="J19">
-        <v>0.8384979473985936</v>
+        <v>0.8384979473985794</v>
       </c>
       <c r="K19">
-        <v>0.14590956635152</v>
+        <v>0.1459095663515164</v>
       </c>
       <c r="L19">
-        <v>0.682549473862494</v>
+        <v>0.6825494738625011</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.755193120319007</v>
+        <v>2.75519312031895</v>
       </c>
       <c r="C20">
-        <v>1.043780137647616</v>
+        <v>1.043780137648071</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01275590664082848</v>
+        <v>0.01275590664082671</v>
       </c>
       <c r="F20">
         <v>3.050900365079713</v>
@@ -1117,13 +1117,13 @@
         <v>2.424755977079883</v>
       </c>
       <c r="I20">
-        <v>0.2578812032133833</v>
+        <v>0.2578812032133797</v>
       </c>
       <c r="J20">
-        <v>0.8753187355663101</v>
+        <v>0.8753187355662817</v>
       </c>
       <c r="K20">
-        <v>0.1521606556895136</v>
+        <v>0.1521606556895101</v>
       </c>
       <c r="L20">
         <v>0.7121266060129159</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.150435468969192</v>
+        <v>3.150435468969249</v>
       </c>
       <c r="C21">
-        <v>1.197095683477301</v>
+        <v>1.197095683477755</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.01435571670906555</v>
+        <v>0.01435571670898916</v>
       </c>
       <c r="F21">
-        <v>3.462656458074179</v>
+        <v>3.462656458074207</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.69809396338762</v>
+        <v>2.698093963387635</v>
       </c>
       <c r="I21">
-        <v>0.2710507545795942</v>
+        <v>0.2710507545795586</v>
       </c>
       <c r="J21">
         <v>1.001794820497736</v>
       </c>
       <c r="K21">
-        <v>0.1735373268957474</v>
+        <v>0.1735373268957829</v>
       </c>
       <c r="L21">
         <v>0.8134810197426887</v>
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.41593749326438</v>
+        <v>3.415937493264266</v>
       </c>
       <c r="C22">
-        <v>1.300553368682529</v>
+        <v>1.300553368682586</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.01540544539509092</v>
+        <v>0.01540544539511401</v>
       </c>
       <c r="F22">
-        <v>3.739807297251332</v>
+        <v>3.73980729725136</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.883750228456023</v>
+        <v>2.883750228456051</v>
       </c>
       <c r="I22">
-        <v>0.2802593920906666</v>
+        <v>0.2802593920906915</v>
       </c>
       <c r="J22">
-        <v>1.086872206381727</v>
+        <v>1.086872206381713</v>
       </c>
       <c r="K22">
-        <v>0.1878314636336391</v>
+        <v>0.1878314636336285</v>
       </c>
       <c r="L22">
-        <v>0.8814456390591303</v>
+        <v>0.8814456390591445</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.273502956561799</v>
+        <v>3.273502956561629</v>
       </c>
       <c r="C23">
-        <v>1.245004162879127</v>
+        <v>1.245004162878899</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.01484478929383926</v>
+        <v>0.01484478929388189</v>
       </c>
       <c r="F23">
-        <v>3.591077441059696</v>
+        <v>3.591077441059724</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.783956633267522</v>
+        <v>2.783956633267479</v>
       </c>
       <c r="I23">
-        <v>0.2752838989134112</v>
+        <v>0.2752838989133863</v>
       </c>
       <c r="J23">
-        <v>1.0412187331561</v>
+        <v>1.041218733156072</v>
       </c>
       <c r="K23">
-        <v>0.1801697754240905</v>
+        <v>0.1801697754240941</v>
       </c>
       <c r="L23">
         <v>0.8449967791482536</v>
@@ -1251,34 +1251,34 @@
         <v>2.748839046339583</v>
       </c>
       <c r="C24">
-        <v>1.041322167253753</v>
+        <v>1.041322167253981</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.01272982548128176</v>
+        <v>0.01272982548123913</v>
       </c>
       <c r="F24">
-        <v>3.044290794390491</v>
+        <v>3.04429079439052</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.420393453909668</v>
+        <v>2.420393453909682</v>
       </c>
       <c r="I24">
-        <v>0.2576749348304475</v>
+        <v>0.2576749348304617</v>
       </c>
       <c r="J24">
-        <v>0.8732871628709233</v>
+        <v>0.8732871628709518</v>
       </c>
       <c r="K24">
-        <v>0.1518160753172175</v>
+        <v>0.1518160753172282</v>
       </c>
       <c r="L24">
-        <v>0.7104955126286399</v>
+        <v>0.7104955126286256</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.207242720131603</v>
+        <v>2.207242720131831</v>
       </c>
       <c r="C25">
-        <v>0.8326012346849154</v>
+        <v>0.8326012346854554</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.01046490187882121</v>
+        <v>0.01046490187876969</v>
       </c>
       <c r="F25">
-        <v>2.482451871274492</v>
+        <v>2.482451871274549</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.052667298860101</v>
+        <v>2.052667298860129</v>
       </c>
       <c r="I25">
-        <v>0.2407682683970265</v>
+        <v>0.2407682683970513</v>
       </c>
       <c r="J25">
         <v>0.7003219559423997</v>
       </c>
       <c r="K25">
-        <v>0.1223438106213734</v>
+        <v>0.122343810621345</v>
       </c>
       <c r="L25">
-        <v>0.5712824168477795</v>
+        <v>0.5712824168477724</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.823263580639576</v>
+        <v>1.807160157687804</v>
       </c>
       <c r="C2">
-        <v>0.6855629741338589</v>
+        <v>0.6771354668304639</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.008809514130677876</v>
+        <v>0.008780110450425482</v>
       </c>
       <c r="F2">
-        <v>2.08652392787107</v>
+        <v>2.086481780913246</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007997724113410547</v>
       </c>
       <c r="H2">
-        <v>1.797560794438525</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2296591792397287</v>
+        <v>1.818411748085381</v>
       </c>
       <c r="J2">
-        <v>0.5779305898802676</v>
+        <v>0.2372087697249334</v>
       </c>
       <c r="K2">
-        <v>0.1013338170809241</v>
+        <v>0.5722451234347119</v>
       </c>
       <c r="L2">
-        <v>0.4723745101206802</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1012602035276302</v>
+      </c>
+      <c r="M2">
+        <v>0.4698078646976782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.569728101417809</v>
+        <v>1.556404168375025</v>
       </c>
       <c r="C3">
-        <v>0.5889021548009623</v>
+        <v>0.5819528026968328</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.007694488158183965</v>
+        <v>0.007637441732913253</v>
       </c>
       <c r="F3">
-        <v>1.826617577449625</v>
+        <v>1.828002510142937</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008086495649867974</v>
       </c>
       <c r="H3">
-        <v>1.632190828578828</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2227796565617659</v>
+        <v>1.655083068512383</v>
       </c>
       <c r="J3">
-        <v>0.4972250323643337</v>
+        <v>0.2306312354598496</v>
       </c>
       <c r="K3">
-        <v>0.08741334175053694</v>
+        <v>0.4925294961283271</v>
       </c>
       <c r="L3">
-        <v>0.4069799773603435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.08733599619008103</v>
+      </c>
+      <c r="M3">
+        <v>0.4048441959808073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.416635965751482</v>
+        <v>1.405024155496136</v>
       </c>
       <c r="C4">
-        <v>0.5306990380853449</v>
+        <v>0.5246588715764346</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.007013012827504994</v>
+        <v>0.006937174944258828</v>
       </c>
       <c r="F4">
-        <v>1.670419811702303</v>
+        <v>1.672669279651387</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008142313667080147</v>
       </c>
       <c r="H4">
-        <v>1.533717836439848</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2188233424633808</v>
+        <v>1.557853659079981</v>
       </c>
       <c r="J4">
-        <v>0.448533931744258</v>
+        <v>0.2268583448178028</v>
       </c>
       <c r="K4">
-        <v>0.0789906458655345</v>
+        <v>0.4444481055189868</v>
       </c>
       <c r="L4">
-        <v>0.3674616899918348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.07890950235868743</v>
+      </c>
+      <c r="M4">
+        <v>0.3655892230601481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.354802569704162</v>
+        <v>1.343891249165068</v>
       </c>
       <c r="C5">
-        <v>0.5072257291229221</v>
+        <v>0.5015572333461193</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.006736075485405557</v>
+        <v>0.00665213301342682</v>
       </c>
       <c r="F5">
-        <v>1.607516281364624</v>
+        <v>1.610116128034548</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008165409115365849</v>
       </c>
       <c r="H5">
-        <v>1.494273548645452</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2172714438395822</v>
+        <v>1.518914960274415</v>
       </c>
       <c r="J5">
-        <v>0.4288765270670396</v>
+        <v>0.225380880582442</v>
       </c>
       <c r="K5">
-        <v>0.07558529958155802</v>
+        <v>0.4250401402681945</v>
       </c>
       <c r="L5">
-        <v>0.3514940991173319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.07550225310795255</v>
+      </c>
+      <c r="M5">
+        <v>0.3497288768520974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.344565938385131</v>
+        <v>1.333771139729862</v>
       </c>
       <c r="C6">
-        <v>0.5033416010927283</v>
+        <v>0.4977349124593218</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.006690136082355913</v>
+        <v>0.006604821131540817</v>
       </c>
       <c r="F6">
-        <v>1.597113538908545</v>
+        <v>1.599771476794643</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008169265717189938</v>
       </c>
       <c r="H6">
-        <v>1.487762791684958</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2170172039433318</v>
+        <v>1.512488119282239</v>
       </c>
       <c r="J6">
-        <v>0.4256226926634028</v>
+        <v>0.2251389867716789</v>
       </c>
       <c r="K6">
-        <v>0.07502135310869562</v>
+        <v>0.4218277977221447</v>
       </c>
       <c r="L6">
-        <v>0.3488502972812029</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.07493796981522394</v>
+      </c>
+      <c r="M6">
+        <v>0.347102886217435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.415799940608508</v>
+        <v>1.404197564390699</v>
       </c>
       <c r="C7">
-        <v>0.5303815316982252</v>
+        <v>0.5243463719805277</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.007009274867806781</v>
+        <v>0.006933329480096617</v>
       </c>
       <c r="F7">
-        <v>1.669568572933244</v>
+        <v>1.671822772756499</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008142623702511893</v>
       </c>
       <c r="H7">
-        <v>1.533183215433993</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2188021775058822</v>
+        <v>1.557325859822186</v>
       </c>
       <c r="J7">
-        <v>0.4482681181160046</v>
+        <v>0.2268381847361916</v>
       </c>
       <c r="K7">
-        <v>0.07894461645500428</v>
+        <v>0.4441856513379889</v>
       </c>
       <c r="L7">
-        <v>0.367245822067396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.07886344869395856</v>
+      </c>
+      <c r="M7">
+        <v>0.3653748013979694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.735248601288419</v>
+        <v>1.720103302846326</v>
       </c>
       <c r="C8">
-        <v>0.6519687640385428</v>
+        <v>0.6440510872256766</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.008424382555770826</v>
+        <v>0.008385831914889508</v>
       </c>
       <c r="F8">
-        <v>1.99614072542694</v>
+        <v>1.996593713514457</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0008028072365506318</v>
       </c>
       <c r="H8">
-        <v>1.739850726093607</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2272271262430969</v>
+        <v>1.761408360353428</v>
       </c>
       <c r="J8">
-        <v>0.5499039304203848</v>
+        <v>0.2348813788377235</v>
       </c>
       <c r="K8">
-        <v>0.09650545778580266</v>
+        <v>0.5445597220956273</v>
       </c>
       <c r="L8">
-        <v>0.449680301095519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.09643088540942202</v>
+      </c>
+      <c r="M8">
+        <v>0.4472626372059381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.387009501975001</v>
+        <v>2.364886507738788</v>
       </c>
       <c r="C9">
-        <v>0.9017076779487923</v>
+        <v>0.8900706688193907</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01122582447377773</v>
+        <v>0.0112456060468773</v>
       </c>
       <c r="F9">
-        <v>2.668564917949936</v>
+        <v>2.665339709541712</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.000781288105606117</v>
       </c>
       <c r="H9">
-        <v>2.173778242455199</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2462277905502752</v>
+        <v>2.190122524685407</v>
       </c>
       <c r="J9">
-        <v>0.7576892217389926</v>
+        <v>0.2531076409348678</v>
       </c>
       <c r="K9">
-        <v>0.1321480403112361</v>
+        <v>0.7498593265673605</v>
       </c>
       <c r="L9">
-        <v>0.6175297439168972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.1320731703098801</v>
+      </c>
+      <c r="M9">
+        <v>0.6140169112570106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.889004055653288</v>
+        <v>2.861613494171479</v>
       </c>
       <c r="C10">
-        <v>1.095592578476499</v>
+        <v>1.081139095635876</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.01330249403759431</v>
+        <v>0.01335500964404623</v>
       </c>
       <c r="F10">
-        <v>3.190171077958439</v>
+        <v>3.18406614272638</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007659018471053259</v>
       </c>
       <c r="H10">
-        <v>2.516866647342212</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.262265686421685</v>
+        <v>2.529182903225745</v>
       </c>
       <c r="J10">
-        <v>0.9181143197909307</v>
+        <v>0.2685445034725298</v>
       </c>
       <c r="K10">
-        <v>0.1594105294813346</v>
+        <v>0.9084073247436919</v>
       </c>
       <c r="L10">
-        <v>0.7464637620422181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.1593251776594968</v>
+      </c>
+      <c r="M10">
+        <v>0.7421097634923655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.124428659888281</v>
+        <v>3.094576501986921</v>
       </c>
       <c r="C11">
-        <v>1.186981963937853</v>
+        <v>1.17121015951119</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01425181371365802</v>
+        <v>0.01431673657730137</v>
       </c>
       <c r="F11">
-        <v>3.435529652504613</v>
+        <v>3.428051305255281</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007589547936272477</v>
       </c>
       <c r="H11">
-        <v>2.679993435506418</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2701641082666697</v>
+        <v>2.690403618705403</v>
       </c>
       <c r="J11">
-        <v>0.9934663034590159</v>
+        <v>0.2761579738909496</v>
       </c>
       <c r="K11">
-        <v>0.1721342826018777</v>
+        <v>0.9828819576292318</v>
       </c>
       <c r="L11">
-        <v>0.806818384497852</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.1720412908393776</v>
+      </c>
+      <c r="M11">
+        <v>0.802067425349577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.214792484068823</v>
+        <v>3.18399516987381</v>
       </c>
       <c r="C12">
-        <v>1.222138867679973</v>
+        <v>1.205860553996729</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.01461201025118797</v>
+        <v>0.01468124364323309</v>
       </c>
       <c r="F12">
-        <v>3.529802357983556</v>
+        <v>3.521792226717849</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007563278051607582</v>
       </c>
       <c r="H12">
-        <v>2.742952442891607</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2732567624346522</v>
+        <v>2.752627067227436</v>
       </c>
       <c r="J12">
-        <v>1.022408655068588</v>
+        <v>0.2791405931093962</v>
       </c>
       <c r="K12">
-        <v>0.1770071395968813</v>
+        <v>1.011487417077944</v>
       </c>
       <c r="L12">
-        <v>0.8299645187073637</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.176910772830265</v>
+      </c>
+      <c r="M12">
+        <v>0.8250605159242639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.195273571988025</v>
+        <v>3.164680457807208</v>
       </c>
       <c r="C13">
-        <v>1.214541150060143</v>
+        <v>1.198372281826039</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.01453440317735755</v>
+        <v>0.01460272602934332</v>
       </c>
       <c r="F13">
-        <v>3.509435059615072</v>
+        <v>3.501540024834242</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007568934754917283</v>
       </c>
       <c r="H13">
-        <v>2.729337320180775</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2725859156665535</v>
+        <v>2.739171030016735</v>
       </c>
       <c r="J13">
-        <v>1.01615607387734</v>
+        <v>0.278493547566967</v>
       </c>
       <c r="K13">
-        <v>0.1759551071210801</v>
+        <v>1.005307622146631</v>
       </c>
       <c r="L13">
-        <v>0.8249658242959157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.1758594899201178</v>
+      </c>
+      <c r="M13">
+        <v>0.8200949154079424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.131837384388746</v>
+        <v>3.101907751794784</v>
       </c>
       <c r="C14">
-        <v>1.18986275499725</v>
+        <v>1.174049438454517</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.01428143281067484</v>
+        <v>0.01434671827630218</v>
       </c>
       <c r="F14">
-        <v>3.443257015349872</v>
+        <v>3.435735169117692</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007587386191936999</v>
       </c>
       <c r="H14">
-        <v>2.685148259035444</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2704164099489077</v>
+        <v>2.695498223754328</v>
       </c>
       <c r="J14">
-        <v>0.9958388083957885</v>
+        <v>0.2764012686476676</v>
       </c>
       <c r="K14">
-        <v>0.1725340284169796</v>
+        <v>0.9852268479123438</v>
       </c>
       <c r="L14">
-        <v>0.8087165060483699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.1724407690992535</v>
+      </c>
+      <c r="M14">
+        <v>0.8039530147920715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.093145311659043</v>
+        <v>3.063620267818294</v>
       </c>
       <c r="C15">
-        <v>1.174821054463848</v>
+        <v>1.159224509554292</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.01412657495243508</v>
+        <v>0.01418994840083165</v>
       </c>
       <c r="F15">
-        <v>3.402904634907202</v>
+        <v>3.395609767848157</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.00075986918394856</v>
       </c>
       <c r="H15">
-        <v>2.658241218963099</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2691012557407042</v>
+        <v>2.668905506609946</v>
       </c>
       <c r="J15">
-        <v>0.983449210706155</v>
+        <v>0.2751331251504681</v>
       </c>
       <c r="K15">
-        <v>0.1704459026110463</v>
+        <v>0.9729814586507075</v>
       </c>
       <c r="L15">
-        <v>0.7988027369294528</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.1703540224969089</v>
+      </c>
+      <c r="M15">
+        <v>0.794104665331389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.873776912725475</v>
+        <v>2.846545615180844</v>
       </c>
       <c r="C16">
-        <v>1.089691730084184</v>
+        <v>1.075323497731574</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.01324055062395679</v>
+        <v>0.01329220293228417</v>
       </c>
       <c r="F16">
-        <v>3.174315284865827</v>
+        <v>3.16829861986821</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007663565914647017</v>
       </c>
       <c r="H16">
-        <v>2.506362036479644</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2617628647546226</v>
+        <v>2.518801118157384</v>
       </c>
       <c r="J16">
-        <v>0.9132431479501406</v>
+        <v>0.2680600336453836</v>
       </c>
       <c r="K16">
-        <v>0.1585861697819055</v>
+        <v>0.903592913737981</v>
       </c>
       <c r="L16">
-        <v>0.7425575120574308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.1585012539013597</v>
+      </c>
+      <c r="M16">
+        <v>0.7382291139930501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.74114276292255</v>
+        <v>2.715299517693438</v>
       </c>
       <c r="C17">
-        <v>1.03834527216452</v>
+        <v>1.024719794531023</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.01269821972835672</v>
+        <v>0.01274202551060633</v>
       </c>
       <c r="F17">
-        <v>3.036285521342194</v>
+        <v>3.031035066341502</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007703472437082405</v>
       </c>
       <c r="H17">
-        <v>2.415110814783375</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2574253317183093</v>
+        <v>2.428617726035924</v>
       </c>
       <c r="J17">
-        <v>0.8708265210570403</v>
+        <v>0.2638819902945535</v>
       </c>
       <c r="K17">
-        <v>0.1513986689992635</v>
+        <v>0.8616709635993232</v>
       </c>
       <c r="L17">
-        <v>0.7085198039718534</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.1513172453832752</v>
+      </c>
+      <c r="M17">
+        <v>0.7044140907242777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.665506664949589</v>
+        <v>2.640455892668456</v>
       </c>
       <c r="C18">
-        <v>1.009106234060852</v>
+        <v>0.9959046151001303</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.01238671852480522</v>
+        <v>0.01242577960112889</v>
       </c>
       <c r="F18">
-        <v>2.957641349781028</v>
+        <v>2.952825811433826</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007726477344311049</v>
       </c>
       <c r="H18">
-        <v>2.363277880675582</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2549861995762512</v>
+        <v>2.377392263880338</v>
       </c>
       <c r="J18">
-        <v>0.8466484951384246</v>
+        <v>0.2615335392706015</v>
       </c>
       <c r="K18">
-        <v>0.1472943482915632</v>
+        <v>0.8377753459336219</v>
       </c>
       <c r="L18">
-        <v>0.6890992690489099</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.147214667945498</v>
+      </c>
+      <c r="M18">
+        <v>0.6851203381697601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.640003924614632</v>
+        <v>2.615220555611472</v>
       </c>
       <c r="C19">
-        <v>0.9992543534704339</v>
+        <v>0.9861957231960048</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.01228132269937277</v>
+        <v>0.01231873835660657</v>
       </c>
       <c r="F19">
-        <v>2.931136418239078</v>
+        <v>2.92646721198696</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007734276367059819</v>
       </c>
       <c r="H19">
-        <v>2.345835325799882</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2541694981512563</v>
+        <v>2.360154322213305</v>
       </c>
       <c r="J19">
-        <v>0.8384979473985794</v>
+        <v>0.2607473729627863</v>
       </c>
       <c r="K19">
-        <v>0.1459095663515164</v>
+        <v>0.8297200884063045</v>
       </c>
       <c r="L19">
-        <v>0.6825494738625011</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.1458304325321294</v>
+      </c>
+      <c r="M19">
+        <v>0.6786132641871419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.75519312031895</v>
+        <v>2.729202748836428</v>
       </c>
       <c r="C20">
-        <v>1.043780137648071</v>
+        <v>1.03007595260658</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01275590664082671</v>
+        <v>0.01280057186996331</v>
       </c>
       <c r="F20">
-        <v>3.050900365079713</v>
+        <v>3.04556896177823</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007699219223264823</v>
       </c>
       <c r="H20">
-        <v>2.424755977079883</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2578812032133797</v>
+        <v>2.438149932123864</v>
       </c>
       <c r="J20">
-        <v>0.8753187355662817</v>
+        <v>0.2643209959626276</v>
       </c>
       <c r="K20">
-        <v>0.1521606556895101</v>
+        <v>0.8661107465153748</v>
       </c>
       <c r="L20">
-        <v>0.7121266060129159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.1520788882353976</v>
+      </c>
+      <c r="M20">
+        <v>0.7079973265342616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.150435468969249</v>
+        <v>3.12031134105348</v>
       </c>
       <c r="C21">
-        <v>1.197095683477755</v>
+        <v>1.181178148173501</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.01435571670898916</v>
+        <v>0.01442190513186148</v>
       </c>
       <c r="F21">
-        <v>3.462656458074207</v>
+        <v>3.455025338124898</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007581965880223112</v>
       </c>
       <c r="H21">
-        <v>2.698093963387635</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2710507545795586</v>
+        <v>2.708292693663637</v>
       </c>
       <c r="J21">
-        <v>1.001794820497736</v>
+        <v>0.2770129919167026</v>
       </c>
       <c r="K21">
-        <v>0.1735373268957829</v>
+        <v>0.9911135347891928</v>
       </c>
       <c r="L21">
-        <v>0.8134810197426887</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.1734433887160698</v>
+      </c>
+      <c r="M21">
+        <v>0.8086860572249108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.415937493264266</v>
+        <v>3.383033682616144</v>
       </c>
       <c r="C22">
-        <v>1.300553368682586</v>
+        <v>1.283145579615223</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.01540544539511401</v>
+        <v>0.01548342054142893</v>
       </c>
       <c r="F22">
-        <v>3.73980729725136</v>
+        <v>3.730603365041418</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007505528460786899</v>
       </c>
       <c r="H22">
-        <v>2.883750228456051</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2802593920906915</v>
+        <v>2.891778474113451</v>
       </c>
       <c r="J22">
-        <v>1.086872206381713</v>
+        <v>0.2858968141795195</v>
       </c>
       <c r="K22">
-        <v>0.1878314636336285</v>
+        <v>1.075200083913245</v>
       </c>
       <c r="L22">
-        <v>0.8814456390591445</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.1877267182903282</v>
+      </c>
+      <c r="M22">
+        <v>0.8761993253751967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.273502956561629</v>
+        <v>3.242091248091583</v>
       </c>
       <c r="C23">
-        <v>1.245004162878899</v>
+        <v>1.228396503464523</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.01484478929388189</v>
+        <v>0.01491669421437614</v>
       </c>
       <c r="F23">
-        <v>3.591077441059724</v>
+        <v>3.58272033337181</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007546320810891355</v>
       </c>
       <c r="H23">
-        <v>2.783956633267479</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2752838989133863</v>
+        <v>2.793152050374601</v>
       </c>
       <c r="J23">
-        <v>1.041218733156072</v>
+        <v>0.2810960244120189</v>
       </c>
       <c r="K23">
-        <v>0.1801697754240941</v>
+        <v>1.03007849339302</v>
       </c>
       <c r="L23">
-        <v>0.8449967791482536</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.1800710861062242</v>
+      </c>
+      <c r="M23">
+        <v>0.83999310826281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.748839046339583</v>
+        <v>2.722915207620247</v>
       </c>
       <c r="C24">
-        <v>1.041322167253981</v>
+        <v>1.02765357553568</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.01272982548123913</v>
+        <v>0.01277410287989333</v>
       </c>
       <c r="F24">
-        <v>3.04429079439052</v>
+        <v>3.038996005032232</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007701141905321622</v>
       </c>
       <c r="H24">
-        <v>2.420393453909682</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2576749348304617</v>
+        <v>2.433838496275982</v>
       </c>
       <c r="J24">
-        <v>0.8732871628709518</v>
+        <v>0.2641223557368342</v>
       </c>
       <c r="K24">
-        <v>0.1518160753172282</v>
+        <v>0.8641028842421434</v>
       </c>
       <c r="L24">
-        <v>0.7104955126286256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.151734464131156</v>
+      </c>
+      <c r="M24">
+        <v>0.7063768912636448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.207242720131831</v>
+        <v>2.187022008966096</v>
       </c>
       <c r="C25">
-        <v>0.8326012346854554</v>
+        <v>0.8219796110781772</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.01046490187876969</v>
+        <v>0.01047059819161156</v>
       </c>
       <c r="F25">
-        <v>2.482451871274549</v>
+        <v>2.480245571290169</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007870231001121828</v>
       </c>
       <c r="H25">
-        <v>2.052667298860129</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2407682683970513</v>
+        <v>2.07044763052275</v>
       </c>
       <c r="J25">
-        <v>0.7003219559423997</v>
+        <v>0.2478619048371904</v>
       </c>
       <c r="K25">
-        <v>0.122343810621345</v>
+        <v>0.6931698132841859</v>
       </c>
       <c r="L25">
-        <v>0.5712824168477724</v>
+        <v>0.1222706384633554</v>
+      </c>
+      <c r="M25">
+        <v>0.5680704178234635</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.807160157687804</v>
+        <v>2.414956938973262</v>
       </c>
       <c r="C2">
-        <v>0.6771354668304639</v>
+        <v>0.3154702489588033</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.008780110450425482</v>
+        <v>0.02469909244741375</v>
       </c>
       <c r="F2">
-        <v>2.086481780913246</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007997724113410547</v>
+        <v>0.0008216841879767202</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.818411748085381</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2372087697249334</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5722451234347119</v>
+        <v>0.5616878553832336</v>
       </c>
       <c r="L2">
-        <v>0.1012602035276302</v>
+        <v>0.147933015157129</v>
       </c>
       <c r="M2">
-        <v>0.4698078646976782</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4121448042242477</v>
+      </c>
+      <c r="N2">
+        <v>1.220422826711726</v>
+      </c>
+      <c r="O2">
+        <v>1.208786020491843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.556404168375025</v>
+        <v>2.112711502455056</v>
       </c>
       <c r="C3">
-        <v>0.5819528026968328</v>
+        <v>0.2744234835463715</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.007637441732913253</v>
+        <v>0.02484754392519317</v>
       </c>
       <c r="F3">
-        <v>1.828002510142937</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008086495649867974</v>
+        <v>0.0008288424847722975</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.655083068512383</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2306312354598496</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4925294961283271</v>
+        <v>0.4875021007877933</v>
       </c>
       <c r="L3">
-        <v>0.08733599619008103</v>
+        <v>0.1342349604819191</v>
       </c>
       <c r="M3">
-        <v>0.4048441959808073</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3629628185068867</v>
+      </c>
+      <c r="N3">
+        <v>1.27736984801809</v>
+      </c>
+      <c r="O3">
+        <v>1.143856865507544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.405024155496136</v>
+        <v>1.93014368535637</v>
       </c>
       <c r="C4">
-        <v>0.5246588715764346</v>
+        <v>0.2494629307145431</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.006937174944258828</v>
+        <v>0.02495246880697399</v>
       </c>
       <c r="F4">
-        <v>1.672669279651387</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008142313667080147</v>
+        <v>0.0008333620071359314</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.557853659079981</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2268583448178028</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4444481055189868</v>
+        <v>0.4426137790988278</v>
       </c>
       <c r="L4">
-        <v>0.07890950235868743</v>
+        <v>0.1260320264217185</v>
       </c>
       <c r="M4">
-        <v>0.3655892230601481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3333005053551688</v>
+      </c>
+      <c r="N4">
+        <v>1.314152559089322</v>
+      </c>
+      <c r="O4">
+        <v>1.106634117807864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.343891249165068</v>
+        <v>1.856417082774442</v>
       </c>
       <c r="C5">
-        <v>0.5015572333461193</v>
+        <v>0.2393403238213381</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.00665213301342682</v>
+        <v>0.02499859224288636</v>
       </c>
       <c r="F5">
-        <v>1.610116128034548</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008165409115365849</v>
+        <v>0.0008352361402349021</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.518914960274415</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.225380880582442</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4250401402681945</v>
+        <v>0.4244668006287071</v>
       </c>
       <c r="L5">
-        <v>0.07550225310795255</v>
+        <v>0.1227371898239582</v>
       </c>
       <c r="M5">
-        <v>0.3497288768520974</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3213333027463605</v>
+      </c>
+      <c r="N5">
+        <v>1.329581667742119</v>
+      </c>
+      <c r="O5">
+        <v>1.09208065525582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.333771139729862</v>
+        <v>1.844212980577367</v>
       </c>
       <c r="C6">
-        <v>0.4977349124593218</v>
+        <v>0.2376621026395753</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.006604821131540817</v>
+        <v>0.02500645159428805</v>
       </c>
       <c r="F6">
-        <v>1.599771476794643</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.0008169265717189938</v>
+        <v>0.000835549326709392</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.512488119282239</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2251389867716789</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4218277977221447</v>
+        <v>0.4214617020235991</v>
       </c>
       <c r="L6">
-        <v>0.07493796981522394</v>
+        <v>0.1221928591005295</v>
       </c>
       <c r="M6">
-        <v>0.347102886217435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3193530344734583</v>
+      </c>
+      <c r="N6">
+        <v>1.332169751357853</v>
+      </c>
+      <c r="O6">
+        <v>1.089699829301665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.404197564390699</v>
+        <v>1.929146773950634</v>
       </c>
       <c r="C7">
-        <v>0.5243463719805277</v>
+        <v>0.2493262302884744</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.006933329480096617</v>
+        <v>0.02495307733891194</v>
       </c>
       <c r="F7">
-        <v>1.671822772756499</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0008142623702511893</v>
+        <v>0.0008333871497849792</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.557325859822186</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2268381847361916</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4441856513379889</v>
+        <v>0.4423684807193169</v>
       </c>
       <c r="L7">
-        <v>0.07886344869395856</v>
+        <v>0.1259874025274073</v>
       </c>
       <c r="M7">
-        <v>0.3653748013979694</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3331386419436768</v>
+      </c>
+      <c r="N7">
+        <v>1.314358882077194</v>
+      </c>
+      <c r="O7">
+        <v>1.106435417268742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.720103302846326</v>
+        <v>2.310063585972784</v>
       </c>
       <c r="C8">
-        <v>0.6440510872256766</v>
+        <v>0.3012595501197097</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.008385831914889508</v>
+        <v>0.02474735732218813</v>
       </c>
       <c r="F8">
-        <v>1.996593713514457</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008028072365506318</v>
+        <v>0.0008241272786004838</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.761408360353428</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2348813788377235</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5445597220956273</v>
+        <v>0.5359579828738248</v>
       </c>
       <c r="L8">
-        <v>0.09643088540942202</v>
+        <v>0.143164117378646</v>
       </c>
       <c r="M8">
-        <v>0.4472626372059381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.3950667598656352</v>
+      </c>
+      <c r="N8">
+        <v>1.239670381432191</v>
+      </c>
+      <c r="O8">
+        <v>1.185818551821669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.364886507738788</v>
+        <v>3.085212461668505</v>
       </c>
       <c r="C9">
-        <v>0.8900706688193907</v>
+        <v>0.4056172548565371</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0112456060468773</v>
+        <v>0.02445823016091353</v>
       </c>
       <c r="F9">
-        <v>2.665339709541712</v>
+        <v>1.895061171842826</v>
       </c>
       <c r="G9">
-        <v>0.000781288105606117</v>
+        <v>0.0008068992041210348</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.190122524685407</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2531076409348678</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7498593265673605</v>
+        <v>0.7257868377153471</v>
       </c>
       <c r="L9">
-        <v>0.1320731703098801</v>
+        <v>0.1787086504518598</v>
       </c>
       <c r="M9">
-        <v>0.6140169112570106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5214639079655612</v>
+      </c>
+      <c r="N9">
+        <v>1.108459331014188</v>
+      </c>
+      <c r="O9">
+        <v>1.364923316978334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.861613494171479</v>
+        <v>3.678485408362633</v>
       </c>
       <c r="C10">
-        <v>1.081139095635876</v>
+        <v>0.4847459290010363</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.01335500964404623</v>
+        <v>0.02432343194408038</v>
       </c>
       <c r="F10">
-        <v>3.18406614272638</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.0007659018471053259</v>
+        <v>0.0007947237215013558</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.529182903225745</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2685445034725298</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9084073247436919</v>
+        <v>0.8707136453080864</v>
       </c>
       <c r="L10">
-        <v>0.1593251776594968</v>
+        <v>0.2062848084809445</v>
       </c>
       <c r="M10">
-        <v>0.7421097634923655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6184387889363947</v>
+      </c>
+      <c r="N10">
+        <v>1.022636535143612</v>
+      </c>
+      <c r="O10">
+        <v>1.514576637168915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.094576501986921</v>
+        <v>3.955204634523398</v>
       </c>
       <c r="C11">
-        <v>1.17121015951119</v>
+        <v>0.5215120583210648</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01431673657730137</v>
+        <v>0.02428107061691831</v>
       </c>
       <c r="F11">
-        <v>3.428051305255281</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007589547936272477</v>
+        <v>0.0007892681833899766</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.690403618705403</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2761579738909496</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9828819576292318</v>
+        <v>0.9382388152136087</v>
       </c>
       <c r="L11">
-        <v>0.1720412908393776</v>
+        <v>0.219229180956674</v>
       </c>
       <c r="M11">
-        <v>0.802067425349577</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.6637219416607465</v>
+      </c>
+      <c r="N11">
+        <v>0.9862145773143496</v>
+      </c>
+      <c r="O11">
+        <v>1.587534196251411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.18399516987381</v>
+        <v>4.061130111894045</v>
       </c>
       <c r="C12">
-        <v>1.205860553996729</v>
+        <v>0.5355674448344416</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.01468124364323309</v>
+        <v>0.02426796387542618</v>
       </c>
       <c r="F12">
-        <v>3.521792226717849</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007563278051607582</v>
+        <v>0.0007872122928448238</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.752627067227436</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2791405931093962</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.011487417077944</v>
+        <v>0.9640769596168468</v>
       </c>
       <c r="L12">
-        <v>0.176910772830265</v>
+        <v>0.2241960202695452</v>
       </c>
       <c r="M12">
-        <v>0.8250605159242639</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.681063263348733</v>
+      </c>
+      <c r="N12">
+        <v>0.9728302410846794</v>
+      </c>
+      <c r="O12">
+        <v>1.615953164894222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.164680457807208</v>
+        <v>4.038263898730804</v>
       </c>
       <c r="C13">
-        <v>1.198372281826039</v>
+        <v>0.5325340759836479</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.01460272602934332</v>
+        <v>0.0242706524798546</v>
       </c>
       <c r="F13">
-        <v>3.501540024834242</v>
+        <v>2.504295469236084</v>
       </c>
       <c r="G13">
-        <v>0.0007568934754917283</v>
+        <v>0.0007876546541045748</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.739171030016735</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.278493547566967</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.005307622146631</v>
+        <v>0.9584996859263981</v>
       </c>
       <c r="L13">
-        <v>0.1758594899201178</v>
+        <v>0.2231232979645341</v>
       </c>
       <c r="M13">
-        <v>0.8200949154079424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.6773194527981872</v>
+      </c>
+      <c r="N13">
+        <v>0.9756941205371845</v>
+      </c>
+      <c r="O13">
+        <v>1.609795884821139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.101907751794784</v>
+        <v>3.963895431313972</v>
       </c>
       <c r="C14">
-        <v>1.174049438454517</v>
+        <v>0.5226656045594211</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.01434671827630218</v>
+        <v>0.02427993220040392</v>
       </c>
       <c r="F14">
-        <v>3.435735169117692</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007587386191936999</v>
+        <v>0.0007890988554802957</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.695498223754328</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2764012686476676</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9852268479123438</v>
+        <v>0.9403589328664879</v>
       </c>
       <c r="L14">
-        <v>0.1724407690992535</v>
+        <v>0.2196364549288177</v>
       </c>
       <c r="M14">
-        <v>0.8039530147920715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.6651445866596575</v>
+      </c>
+      <c r="N14">
+        <v>0.9851050736485902</v>
+      </c>
+      <c r="O14">
+        <v>1.589855826543101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.063620267818294</v>
+        <v>3.918495685998948</v>
       </c>
       <c r="C15">
-        <v>1.159224509554292</v>
+        <v>0.5166388843628056</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.01418994840083165</v>
+        <v>0.0242860051738063</v>
       </c>
       <c r="F15">
-        <v>3.395609767848157</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.00075986918394856</v>
+        <v>0.0007899847115930046</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.668905506609946</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2751331251504681</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9729814586507075</v>
+        <v>0.9292832846534083</v>
       </c>
       <c r="L15">
-        <v>0.1703540224969089</v>
+        <v>0.2175093785409388</v>
       </c>
       <c r="M15">
-        <v>0.794104665331389</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.6577131450427345</v>
+      </c>
+      <c r="N15">
+        <v>0.9909236599164046</v>
+      </c>
+      <c r="O15">
+        <v>1.577747889657132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.846545615180844</v>
+        <v>3.660551562716932</v>
       </c>
       <c r="C16">
-        <v>1.075323497731574</v>
+        <v>0.4823605023688629</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.01329220293228417</v>
+        <v>0.02432659897983003</v>
       </c>
       <c r="F16">
-        <v>3.16829861986821</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007663565914647017</v>
+        <v>0.0007950817646884115</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.518801118157384</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2680600336453836</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.903592913737981</v>
+        <v>0.8663360193594372</v>
       </c>
       <c r="L16">
-        <v>0.1585012539013597</v>
+        <v>0.205447539301872</v>
       </c>
       <c r="M16">
-        <v>0.7382291139930501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6155050630486301</v>
+      </c>
+      <c r="N16">
+        <v>1.025072089213154</v>
+      </c>
+      <c r="O16">
+        <v>1.509914326160754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.715299517693438</v>
+        <v>3.504166941555184</v>
       </c>
       <c r="C17">
-        <v>1.024719794531023</v>
+        <v>0.4615439796257306</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.01274202551060633</v>
+        <v>0.02435649670944651</v>
       </c>
       <c r="F17">
-        <v>3.031035066341502</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007703472437082405</v>
+        <v>0.00079822861368309</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.428617726035924</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2638819902945535</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8616709635993232</v>
+        <v>0.828154798706521</v>
       </c>
       <c r="L17">
-        <v>0.1513172453832752</v>
+        <v>0.1981555468284881</v>
       </c>
       <c r="M17">
-        <v>0.7044140907242777</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.5899283936002462</v>
+      </c>
+      <c r="N17">
+        <v>1.046713001737054</v>
+      </c>
+      <c r="O17">
+        <v>1.469611160003396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.640455892668456</v>
+        <v>3.414851871375561</v>
       </c>
       <c r="C18">
-        <v>0.9959046151001303</v>
+        <v>0.4496418802258404</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.01242577960112889</v>
+        <v>0.02437546347507791</v>
       </c>
       <c r="F18">
-        <v>2.952825811433826</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007726477344311049</v>
+        <v>0.0008000465531553918</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.377392263880338</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2615335392706015</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8377753459336219</v>
+        <v>0.8063417832877917</v>
       </c>
       <c r="L18">
-        <v>0.147214667945498</v>
+        <v>0.1939985201198482</v>
       </c>
       <c r="M18">
-        <v>0.6851203381697601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.5753256961498749</v>
+      </c>
+      <c r="N18">
+        <v>1.059404749536554</v>
+      </c>
+      <c r="O18">
+        <v>1.446883176859743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.615220555611472</v>
+        <v>3.384715642788024</v>
       </c>
       <c r="C19">
-        <v>0.9861957231960048</v>
+        <v>0.4456235994014435</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.01231873835660657</v>
+        <v>0.0243821834988931</v>
       </c>
       <c r="F19">
-        <v>2.92646721198696</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.0007734276367059819</v>
+        <v>0.0008006634987042262</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.360154322213305</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2607473729627863</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8297200884063045</v>
+        <v>0.7989805656190327</v>
       </c>
       <c r="L19">
-        <v>0.1458304325321294</v>
+        <v>0.1925971821002577</v>
       </c>
       <c r="M19">
-        <v>0.6786132641871419</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.5703993474893281</v>
+      </c>
+      <c r="N19">
+        <v>1.06374305129426</v>
+      </c>
+      <c r="O19">
+        <v>1.439263159096029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.729202748836428</v>
+        <v>3.520747748499275</v>
       </c>
       <c r="C20">
-        <v>1.03007595260658</v>
+        <v>0.4637524325844993</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01280057186996331</v>
+        <v>0.02435312940451917</v>
       </c>
       <c r="F20">
-        <v>3.04556896177823</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007699219223264823</v>
+        <v>0.0007978928163315325</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.438149932123864</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2643209959626276</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8661107465153748</v>
+        <v>0.8322036942450524</v>
       </c>
       <c r="L20">
-        <v>0.1520788882353976</v>
+        <v>0.1989278962200132</v>
       </c>
       <c r="M20">
-        <v>0.7079973265342616</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.5926396866564119</v>
+      </c>
+      <c r="N20">
+        <v>1.044383773495952</v>
+      </c>
+      <c r="O20">
+        <v>1.473853964326565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.12031134105348</v>
+        <v>3.985707047581002</v>
       </c>
       <c r="C21">
-        <v>1.181178148173501</v>
+        <v>0.5255604185713594</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.01442190513186148</v>
+        <v>0.0242771250637186</v>
       </c>
       <c r="F21">
-        <v>3.455025338124898</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007581965880223112</v>
+        <v>0.0007886744036121483</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.708292693663637</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2770129919167026</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9911135347891928</v>
+        <v>0.9456797168680708</v>
       </c>
       <c r="L21">
-        <v>0.1734433887160698</v>
+        <v>0.2206587941742271</v>
       </c>
       <c r="M21">
-        <v>0.8086860572249108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.6687151686988742</v>
+      </c>
+      <c r="N21">
+        <v>0.9823295120127966</v>
+      </c>
+      <c r="O21">
+        <v>1.595690455076422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.383033682616144</v>
+        <v>4.296302637235726</v>
       </c>
       <c r="C22">
-        <v>1.283145579615223</v>
+        <v>0.5667421637099892</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.01548342054142893</v>
+        <v>0.0242446768484994</v>
       </c>
       <c r="F22">
-        <v>3.730603365041418</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007505528460786899</v>
+        <v>0.0007827068771621899</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.891778474113451</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2858968141795195</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.075200083913245</v>
+        <v>1.02142499367514</v>
       </c>
       <c r="L22">
-        <v>0.1877267182903282</v>
+        <v>0.2352447124696795</v>
       </c>
       <c r="M22">
-        <v>0.8761993253751967</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7195772027571934</v>
+      </c>
+      <c r="N22">
+        <v>0.9441680812362137</v>
+      </c>
+      <c r="O22">
+        <v>1.679980789970259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.242091248091583</v>
+        <v>4.129861301791948</v>
       </c>
       <c r="C23">
-        <v>1.228396503464523</v>
+        <v>0.5446826777938441</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.01491669421437614</v>
+        <v>0.02426034178868131</v>
       </c>
       <c r="F23">
-        <v>3.58272033337181</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007546320810891355</v>
+        <v>0.0007858873244216413</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.793152050374601</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2810960244120189</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.03007849339302</v>
+        <v>0.9808397511270215</v>
       </c>
       <c r="L23">
-        <v>0.1800710861062242</v>
+        <v>0.2274221092316964</v>
       </c>
       <c r="M23">
-        <v>0.83999310826281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.6923174504757128</v>
+      </c>
+      <c r="N23">
+        <v>0.9643051431604519</v>
+      </c>
+      <c r="O23">
+        <v>1.634534274629061</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.722915207620247</v>
+        <v>3.513249731555277</v>
       </c>
       <c r="C24">
-        <v>1.02765357553568</v>
+        <v>0.4627537883191337</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.01277410287989333</v>
+        <v>0.02435464623978456</v>
       </c>
       <c r="F24">
-        <v>3.038996005032232</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007701141905321622</v>
+        <v>0.0007980446028192516</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.433838496275982</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2641223557368342</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8641028842421434</v>
+        <v>0.8303727619431953</v>
       </c>
       <c r="L24">
-        <v>0.151734464131156</v>
+        <v>0.1985786078681855</v>
       </c>
       <c r="M24">
-        <v>0.7063768912636448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.5914135962757925</v>
+      </c>
+      <c r="N24">
+        <v>1.045436040897037</v>
+      </c>
+      <c r="O24">
+        <v>1.471934419792973</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.187022008966096</v>
+        <v>2.871856572934462</v>
       </c>
       <c r="C25">
-        <v>0.8219796110781772</v>
+        <v>0.3770269125674872</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.01047059819161156</v>
+        <v>0.02452345399273215</v>
       </c>
       <c r="F25">
-        <v>2.480245571290169</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.0007870231001121828</v>
+        <v>0.000811468569809148</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.07044763052275</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2478619048371904</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6931698132841859</v>
+        <v>0.6736013089912234</v>
       </c>
       <c r="L25">
-        <v>0.1222706384633554</v>
+        <v>0.168861789387897</v>
       </c>
       <c r="M25">
-        <v>0.5680704178234635</v>
+        <v>0.4866335128481225</v>
+      </c>
+      <c r="N25">
+        <v>1.142198455837267</v>
+      </c>
+      <c r="O25">
+        <v>1.313594734408582</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.414956938973262</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3154702489588033</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02469909244741375</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008216841879767202</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5616878553832336</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.147933015157129</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4121448042242477</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.220422826711726</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.208786020491843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.112711502455056</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2744234835463715</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02484754392519317</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008288424847722975</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4875021007877933</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1342349604819191</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3629628185068867</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.27736984801809</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.143856865507544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.93014368535637</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2494629307145431</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02495246880697399</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008333620071359314</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4426137790988278</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1260320264217185</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3333005053551688</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.314152559089322</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.106634117807864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.856417082774442</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2393403238213381</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02499859224288636</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008352361402349021</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4244668006287071</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1227371898239582</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3213333027463605</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.329581667742119</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.09208065525582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.844212980577367</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2376621026395753</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02500645159428805</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.000835549326709392</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4214617020235991</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1221928591005295</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3193530344734583</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.332169751357853</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.089699829301665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.929146773950634</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2493262302884744</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02495307733891194</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008333871497849792</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4423684807193169</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1259874025274073</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3331386419436768</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.314358882077194</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.106435417268742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.310063585972784</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3012595501197097</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02474735732218813</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008241272786004838</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5359579828738248</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.143164117378646</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3950667598656352</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.239670381432191</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.185818551821669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.085212461668505</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4056172548565371</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02445823016091353</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842826</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0008068992041210348</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7257868377153471</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1787086504518598</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5214639079655612</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.108459331014188</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.364923316978334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.678485408362633</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4847459290010363</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02432343194408038</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.0007947237215013558</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8707136453080864</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2062848084809445</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6184387889363947</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.022636535143612</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.514576637168915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.955204634523398</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.5215120583210648</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02428107061691831</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007892681833899766</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9382388152136087</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.219229180956674</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6637219416607465</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9862145773143496</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.587534196251411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.061130111894045</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.5355674448344416</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.02426796387542618</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007872122928448238</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9640769596168468</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2241960202695452</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.681063263348733</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9728302410846794</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.615953164894222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.038263898730804</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.5325340759836479</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0242706524798546</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236084</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007876546541045748</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9584996859263981</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2231232979645341</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6773194527981872</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9756941205371845</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.609795884821139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.963895431313972</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.5226656045594211</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.02427993220040392</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007890988554802957</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9403589328664879</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2196364549288177</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6651445866596575</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9851050736485902</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.589855826543101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.918495685998948</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.5166388843628056</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0242860051738063</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0007899847115930046</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9292832846534083</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2175093785409388</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6577131450427345</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9909236599164046</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.577747889657132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.660551562716932</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4823605023688629</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.02432659897983003</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007950817646884115</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8663360193594372</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.205447539301872</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6155050630486301</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.025072089213154</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.509914326160754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.504166941555184</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4615439796257306</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02435649670944651</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.00079822861368309</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.828154798706521</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1981555468284881</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5899283936002462</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.046713001737054</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.469611160003396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.414851871375561</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4496418802258404</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02437546347507791</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0008000465531553918</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8063417832877917</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1939985201198482</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5753256961498749</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.059404749536554</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.446883176859743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.384715642788024</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4456235994014435</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0243821834988931</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.0008006634987042262</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7989805656190327</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1925971821002577</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5703993474893281</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.06374305129426</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.439263159096029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.520747748499275</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4637524325844993</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.02435312940451917</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007978928163315325</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8322036942450524</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1989278962200132</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5926396866564119</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.044383773495952</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.473853964326565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.985707047581002</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.5255604185713594</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0242771250637186</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007886744036121483</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9456797168680708</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2206587941742271</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6687151686988742</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9823295120127966</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.595690455076422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.296302637235726</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.5667421637099892</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0242446768484994</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.0007827068771621899</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.02142499367514</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2352447124696795</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7195772027571934</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9441680812362137</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.679980789970259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.129861301791948</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.5446826777938441</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.02426034178868131</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.0007858873244216413</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9808397511270215</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2274221092316964</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6923174504757128</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9643051431604519</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.634534274629061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.513249731555277</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4627537883191337</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02435464623978456</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007980446028192516</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8303727619431953</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1985786078681855</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5914135962757925</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.045436040897037</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.471934419792973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.871856572934462</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3770269125674872</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.02452345399273215</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.000811468569809148</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6736013089912234</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.168861789387897</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4866335128481225</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.142198455837267</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.313594734408582</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_line/pl_mw.xlsx
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938345521</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149814047</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515442</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278901602</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_line/pl_mw.xlsx
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3529483938345521</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4248636149814047</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186353</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515442</v>
+        <v>2.457142640142266</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210123</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031955</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6416283278901602</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.8095146891339482</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1503804638954378</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.07274966710324549</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.2634944771376766</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.003701397698561759</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003232694073456166</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2741074658200873</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3143975269005939</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.6968223784465692</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1672761301858898</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.1885087466915358</v>
+      </c>
+      <c r="P2">
+        <v>0.9229866599641099</v>
+      </c>
+      <c r="Q2">
+        <v>1.079749726945082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.7054474569959268</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.1458385440884236</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.06932228379910832</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.2628036242668088</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.004908107882423962</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.004220105067620494</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2772922276942396</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3185864088872155</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.6107795413447548</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.150726055135074</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1652287440977922</v>
+      </c>
+      <c r="P3">
+        <v>0.9424629342613322</v>
+      </c>
+      <c r="Q3">
+        <v>1.084730438150331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.641178243446376</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.1430487044416004</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.06719519235677396</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.2626369420932306</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005766743602335811</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.004959576878273531</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2794355583831702</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3213425574120237</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5577915046332436</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1405811720267636</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1508901471114932</v>
+      </c>
+      <c r="P4">
+        <v>0.9550171455876217</v>
+      </c>
+      <c r="Q4">
+        <v>1.088722094203817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.6143135278535965</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.1419986488206817</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.06628261436657468</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.2624031083061098</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.006148019011546296</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.005371041335807014</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2802344118920459</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3222966374434222</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.5361578280854644</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1365084724328582</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1449729625213863</v>
+      </c>
+      <c r="P5">
+        <v>0.9603846694415417</v>
+      </c>
+      <c r="Q5">
+        <v>1.089839054374067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.6091352800674485</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.1419329583914291</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.06608183864685735</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.2620886867102925</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.006216418844018523</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.005543541436646038</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2802219944813729</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3221958734844215</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5325637350528893</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1359033991412133</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1439130381010258</v>
+      </c>
+      <c r="P6">
+        <v>0.9614147211937798</v>
+      </c>
+      <c r="Q6">
+        <v>1.089136023912303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.6388660248048552</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.1433333235970835</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.06704961121300279</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.2618718488373872</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005780473074094267</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.005228796082654696</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2790437623827273</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.320641925372172</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.5575017618139384</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.140720828424314</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1506004020373801</v>
+      </c>
+      <c r="P7">
+        <v>0.9554570067416215</v>
+      </c>
+      <c r="Q7">
+        <v>1.086277870697586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.7711048984872093</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.1492204305184615</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.07139730531979538</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.2622003822663856</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.004101513759701914</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0038640056614625</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2746402356823552</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3148702341247933</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.6671885976655858</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1618262066563574</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1802107458517774</v>
+      </c>
+      <c r="P8">
+        <v>0.9301216199880322</v>
+      </c>
+      <c r="Q8">
+        <v>1.078044859035273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.030999500435144</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.1602480906716792</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.07998407159212917</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.2663365933391475</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001778478424012797</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001888205832411671</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2682428312078287</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3063090644652284</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.881120879478118</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2030325559986608</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2383171891639719</v>
+      </c>
+      <c r="P9">
+        <v>0.8845516531883462</v>
+      </c>
+      <c r="Q9">
+        <v>1.073944581890487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.212771620699499</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.1696560396323719</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.08290628849223047</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.2668614608680215</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0009875067945817051</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001326908632538704</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2624956229047726</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2977204518182006</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.037710853636895</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2222539572433391</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.274653436193617</v>
+      </c>
+      <c r="P10">
+        <v>0.8572302006138202</v>
+      </c>
+      <c r="Q10">
+        <v>1.06337863491315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.235970018308365</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1855475393806358</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.06123690219624756</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.2363477328348864</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01967557253444596</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001746718841238781</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2440379314773793</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2692141104172379</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.108738526346514</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.144765858782435</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2398801001193149</v>
+      </c>
+      <c r="P11">
+        <v>0.8753286714636204</v>
+      </c>
+      <c r="Q11">
+        <v>0.9601661682370235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.219733244386532</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1985939901233138</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.04939358355840717</v>
       </c>
       <c r="F12">
-        <v>2.518780942186353</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.2129127507774484</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05850021197017696</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001735490205067691</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2307604073792433</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2498253525548311</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.135741083849894</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.09077530415855506</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2054455298539608</v>
+      </c>
+      <c r="P12">
+        <v>0.9014637382511808</v>
+      </c>
+      <c r="Q12">
+        <v>0.8827183762796551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.169239069890381</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.2104937917129348</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.04410725243208327</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.192271364941881</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1144531817477343</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001769838632405651</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2199927930133825</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2350969577731092</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.130185089795333</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05205094471381955</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.169149085689078</v>
+      </c>
+      <c r="P13">
+        <v>0.9349644374053128</v>
+      </c>
+      <c r="Q13">
+        <v>0.8163802756444767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.118030517697548</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.2186419170356686</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.04424912291191729</v>
       </c>
       <c r="F14">
-        <v>2.457142640142266</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.1791814122188846</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1639593458288289</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001907634716487472</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2136060655463758</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2270357410919921</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.11154425739403</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.03411279423771951</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1433905955862365</v>
+      </c>
+      <c r="P14">
+        <v>0.9623283108027962</v>
+      </c>
+      <c r="Q14">
+        <v>0.7752022642391125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.097664108574776</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.2203351589366918</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.0447812276481212</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.1762355748190494</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1765394977794159</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002077133455970603</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2124171317895147</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.225687706030536</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.100038195294985</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03097991638196973</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1364328855858759</v>
+      </c>
+      <c r="P15">
+        <v>0.9700730308259082</v>
+      </c>
+      <c r="Q15">
+        <v>0.7664387449750976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.029817146235331</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.2135899266248771</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.04456794654029039</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.1796306437695456</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1641719270710809</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002445376047931269</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2166554925249358</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2317385956052433</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.033599921078547</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03156420087850087</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1290875192990946</v>
+      </c>
+      <c r="P16">
+        <v>0.9722953792213289</v>
+      </c>
+      <c r="Q16">
+        <v>0.7823633328535067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.004793941391256</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.2040102775918768</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.04371340255346912</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.1890958518522723</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1265920304554982</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002684783676785152</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2232914719246324</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2405414516440629</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.9926564355638448</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04000691374379173</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1367420404832771</v>
+      </c>
+      <c r="P17">
+        <v>0.9596171832238554</v>
+      </c>
+      <c r="Q17">
+        <v>0.8162403779065528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.015257954260619</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.1913640444615794</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.04557343740409259</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.2060139567035506</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07376077419627336</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002506080262398847</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2332667062183091</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2540077472740556</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.9689475764162694</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06395742537758764</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1595972575655651</v>
+      </c>
+      <c r="P18">
+        <v>0.9344433118226263</v>
+      </c>
+      <c r="Q18">
+        <v>0.8729580285113769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.04997729385596</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.1796300723384547</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.05441111914125774</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.2278027536075484</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02823828676575602</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002550617368060948</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2451151027911536</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2708522379841529</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.9608345666014486</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1106319488912391</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.1948248682518212</v>
+      </c>
+      <c r="P19">
+        <v>0.9064491675010942</v>
+      </c>
+      <c r="Q19">
+        <v>0.9439655598186505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.158676528607344</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.1682716825209383</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.0816083914024226</v>
       </c>
       <c r="F20">
-        <v>2.174835551210123</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.2641658086926668</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001146734901938729</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002240584298409232</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2626594052762883</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.297670387020716</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.9966304635196082</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2173333499553394</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2642114765149692</v>
+      </c>
+      <c r="P20">
+        <v>0.8658832629299198</v>
+      </c>
+      <c r="Q20">
+        <v>1.057913155403909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.308750685370171</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.1736847287513896</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.08888858845217484</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.2711274497204954</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0003963426862430008</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.00186219341716054</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2617004883561336</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.296402439680449</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.116673704668415</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2495331579223716</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.301552884842188</v>
+      </c>
+      <c r="P21">
+        <v>0.8415207221634802</v>
+      </c>
+      <c r="Q21">
+        <v>1.070934930050498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.405879214774046</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.1773701399101526</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.09216048446116787</v>
       </c>
       <c r="F22">
-        <v>2.667416158031955</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.2751181367322815</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0001605383319573939</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001454960181865417</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2608278852875117</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2951584224384085</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.195064914654438</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2645879202874823</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3231317713093773</v>
+      </c>
+      <c r="P22">
+        <v>0.826927987306469</v>
+      </c>
+      <c r="Q22">
+        <v>1.07773892837001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.356440002945902</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.1750017239487676</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.09056875970744471</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.2738295123483496</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0002711408821147732</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001346683532021054</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2617256787914357</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2966018238119332</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.153230388394121</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2563085632065167</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3118717328028495</v>
+      </c>
+      <c r="P23">
+        <v>0.8340238566834515</v>
+      </c>
+      <c r="Q23">
+        <v>1.076796755402796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.164887354339612</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.1667254198478716</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.08427256473527756</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.2682340110463173</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0009778087222932497</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001726694965957343</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2648337070714604</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3012351609936132</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.9946857003058085</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.225420273595887</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2687840948269553</v>
+      </c>
+      <c r="P24">
+        <v>0.8632019353442715</v>
+      </c>
+      <c r="Q24">
+        <v>1.071090228580687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.9574131164929156</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.1578342640084216</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.07744184526153752</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.2636204348795346</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.002303616484769289</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002749044352023056</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2690975631881685</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3072066915665097</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.8233581475152789</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1922221693461879</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.2222451614515606</v>
+      </c>
+      <c r="P25">
+        <v>0.8971812924714335</v>
+      </c>
+      <c r="Q25">
+        <v>1.069837163397864</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8095146891339482</v>
+        <v>0.7883590187148286</v>
       </c>
       <c r="C2">
-        <v>0.1503804638954378</v>
+        <v>0.1370707104949105</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07274966710324549</v>
+        <v>0.07035607142045563</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2634944771376766</v>
+        <v>0.2320642851940917</v>
       </c>
       <c r="H2">
-        <v>0.003701397698561759</v>
+        <v>0.003031662496689291</v>
       </c>
       <c r="I2">
-        <v>0.003232694073456166</v>
+        <v>0.002409652673477147</v>
       </c>
       <c r="J2">
-        <v>0.2741074658200873</v>
+        <v>0.2900468500889062</v>
       </c>
       <c r="K2">
-        <v>0.3143975269005939</v>
+        <v>0.2915652284315406</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1431735390526132</v>
       </c>
       <c r="M2">
-        <v>0.6968223784465692</v>
+        <v>0.08094524338300779</v>
       </c>
       <c r="N2">
-        <v>0.1672761301858898</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1885087466915358</v>
+        <v>0.6990470721082573</v>
       </c>
       <c r="P2">
-        <v>0.9229866599641099</v>
+        <v>0.1740149951342858</v>
       </c>
       <c r="Q2">
-        <v>1.079749726945082</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1860042492436769</v>
+      </c>
+      <c r="R2">
+        <v>0.9062051416608981</v>
+      </c>
+      <c r="S2">
+        <v>1.021935489334751</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7054474569959268</v>
+        <v>0.6899697895917427</v>
       </c>
       <c r="C3">
-        <v>0.1458385440884236</v>
+        <v>0.1310129955469463</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06932228379910832</v>
+        <v>0.06733327664830036</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.2628036242668088</v>
+        <v>0.2332924453868728</v>
       </c>
       <c r="H3">
-        <v>0.004908107882423962</v>
+        <v>0.004059087797412375</v>
       </c>
       <c r="I3">
-        <v>0.004220105067620494</v>
+        <v>0.003129286570353162</v>
       </c>
       <c r="J3">
-        <v>0.2772922276942396</v>
+        <v>0.2918576678043294</v>
       </c>
       <c r="K3">
-        <v>0.3185864088872155</v>
+        <v>0.296429270001159</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1479526447881554</v>
       </c>
       <c r="M3">
-        <v>0.6107795413447548</v>
+        <v>0.08144912210370592</v>
       </c>
       <c r="N3">
-        <v>0.150726055135074</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1652287440977922</v>
+        <v>0.6131255291576707</v>
       </c>
       <c r="P3">
-        <v>0.9424629342613322</v>
+        <v>0.1571082881538146</v>
       </c>
       <c r="Q3">
-        <v>1.084730438150331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1633073005663448</v>
+      </c>
+      <c r="R3">
+        <v>0.9220556930367962</v>
+      </c>
+      <c r="S3">
+        <v>1.030244810238585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.641178243446376</v>
+        <v>0.6290521260375499</v>
       </c>
       <c r="C4">
-        <v>0.1430487044416004</v>
+        <v>0.1273324670062621</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06719519235677396</v>
+        <v>0.06545095422591451</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.2626369420932306</v>
+        <v>0.2343053829203043</v>
       </c>
       <c r="H4">
-        <v>0.005766743602335811</v>
+        <v>0.004792953168712588</v>
       </c>
       <c r="I4">
-        <v>0.004959576878273531</v>
+        <v>0.003687710106840214</v>
       </c>
       <c r="J4">
-        <v>0.2794355583831702</v>
+        <v>0.2930470918216344</v>
       </c>
       <c r="K4">
-        <v>0.3213425574120237</v>
+        <v>0.2995498568820487</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1510491565468204</v>
       </c>
       <c r="M4">
-        <v>0.5577915046332436</v>
+        <v>0.08219950040106117</v>
       </c>
       <c r="N4">
-        <v>0.1405811720267636</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1508901471114932</v>
+        <v>0.5601994611609342</v>
       </c>
       <c r="P4">
-        <v>0.9550171455876217</v>
+        <v>0.1467621355135833</v>
       </c>
       <c r="Q4">
-        <v>1.088722094203817</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1493107529481961</v>
+      </c>
+      <c r="R4">
+        <v>0.9324279472448573</v>
+      </c>
+      <c r="S4">
+        <v>1.03608768974388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6143135278535965</v>
+        <v>0.6035235611356597</v>
       </c>
       <c r="C5">
-        <v>0.1419986488206817</v>
+        <v>0.1259436177953717</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06628261436657468</v>
+        <v>0.06463783463514794</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.2624031083061098</v>
+        <v>0.234561692222421</v>
       </c>
       <c r="H5">
-        <v>0.006148019011546296</v>
+        <v>0.005119535501029199</v>
       </c>
       <c r="I5">
-        <v>0.005371041335807014</v>
+        <v>0.004033540975142635</v>
       </c>
       <c r="J5">
-        <v>0.2802344118920459</v>
+        <v>0.2934256208425126</v>
       </c>
       <c r="K5">
-        <v>0.3222966374434222</v>
+        <v>0.300648651175667</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1522353338066278</v>
       </c>
       <c r="M5">
-        <v>0.5361578280854644</v>
+        <v>0.08257681954120777</v>
       </c>
       <c r="N5">
-        <v>0.1365084724328582</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1449729625213863</v>
+        <v>0.5385886277414755</v>
       </c>
       <c r="P5">
-        <v>0.9603846694415417</v>
+        <v>0.1426124759990088</v>
       </c>
       <c r="Q5">
-        <v>1.089839054374067</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1435290980194175</v>
+      </c>
+      <c r="R5">
+        <v>0.9369323620186663</v>
+      </c>
+      <c r="S5">
+        <v>1.037927479615803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6091352800674485</v>
+        <v>0.5985699514038174</v>
       </c>
       <c r="C6">
-        <v>0.1419329583914291</v>
+        <v>0.1258399979745235</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06608183864685735</v>
+        <v>0.06445427629891043</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.2620886867102925</v>
+        <v>0.2343403160261346</v>
       </c>
       <c r="H6">
-        <v>0.006216418844018523</v>
+        <v>0.005178298955513361</v>
       </c>
       <c r="I6">
-        <v>0.005543541436646038</v>
+        <v>0.004211316008690069</v>
       </c>
       <c r="J6">
-        <v>0.2802219944813729</v>
+        <v>0.2933364260301445</v>
       </c>
       <c r="K6">
-        <v>0.3221958734844215</v>
+        <v>0.3005819435766668</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1522932645407788</v>
       </c>
       <c r="M6">
-        <v>0.5325637350528893</v>
+        <v>0.08259767265044005</v>
       </c>
       <c r="N6">
-        <v>0.1359033991412133</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1439130381010258</v>
+        <v>0.5349985476622692</v>
       </c>
       <c r="P6">
-        <v>0.9614147211937798</v>
+        <v>0.1419955863615385</v>
       </c>
       <c r="Q6">
-        <v>1.089136023912303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1424915096151764</v>
+      </c>
+      <c r="R6">
+        <v>0.9378382184433676</v>
+      </c>
+      <c r="S6">
+        <v>1.037361668264083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6388660248048552</v>
+        <v>0.6264152262383504</v>
       </c>
       <c r="C7">
-        <v>0.1433333235970835</v>
+        <v>0.1275496781744465</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06704961121300279</v>
+        <v>0.06533318556575907</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.2618718488373872</v>
+        <v>0.2352352284818977</v>
       </c>
       <c r="H7">
-        <v>0.005780473074094267</v>
+        <v>0.004808807233399992</v>
       </c>
       <c r="I7">
-        <v>0.005228796082654696</v>
+        <v>0.004002478134248477</v>
       </c>
       <c r="J7">
-        <v>0.2790437623827273</v>
+        <v>0.2901244171019854</v>
       </c>
       <c r="K7">
-        <v>0.320641925372172</v>
+        <v>0.2986296478261981</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1505541069017138</v>
       </c>
       <c r="M7">
-        <v>0.5575017618139384</v>
+        <v>0.08200758392695295</v>
       </c>
       <c r="N7">
-        <v>0.140720828424314</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1506004020373801</v>
+        <v>0.5592968179950759</v>
       </c>
       <c r="P7">
-        <v>0.9554570067416215</v>
+        <v>0.1468719038557111</v>
       </c>
       <c r="Q7">
-        <v>1.086277870697586</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.148956905824047</v>
+      </c>
+      <c r="R7">
+        <v>0.9331226955815204</v>
+      </c>
+      <c r="S7">
+        <v>1.032223951169357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7711048984872093</v>
+        <v>0.7507649563824543</v>
       </c>
       <c r="C8">
-        <v>0.1492204305184615</v>
+        <v>0.1350743400426637</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07139730531979538</v>
+        <v>0.06923080743436749</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.2622003822663856</v>
+        <v>0.2370222689123267</v>
       </c>
       <c r="H8">
-        <v>0.004101513759701914</v>
+        <v>0.003381730735733612</v>
       </c>
       <c r="I8">
-        <v>0.0038640056614625</v>
+        <v>0.003015615338592958</v>
       </c>
       <c r="J8">
-        <v>0.2746402356823552</v>
+        <v>0.2820697946480735</v>
       </c>
       <c r="K8">
-        <v>0.3148702341247933</v>
+        <v>0.2915143938519442</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1439564707675185</v>
       </c>
       <c r="M8">
-        <v>0.6671885976655858</v>
+        <v>0.08057217637752334</v>
       </c>
       <c r="N8">
-        <v>0.1618262066563574</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1802107458517774</v>
+        <v>0.6674003277144038</v>
       </c>
       <c r="P8">
-        <v>0.9301216199880322</v>
+        <v>0.1683406091259485</v>
       </c>
       <c r="Q8">
-        <v>1.078044859035273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1776896492574913</v>
+      </c>
+      <c r="R8">
+        <v>0.9129643358378843</v>
+      </c>
+      <c r="S8">
+        <v>1.016641614965692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.030999500435144</v>
+        <v>0.9953549900914709</v>
       </c>
       <c r="C9">
-        <v>0.1602480906716792</v>
+        <v>0.1499393937997269</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07998407159212917</v>
+        <v>0.07681108043446727</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.2663365933391475</v>
+        <v>0.2378588713964618</v>
       </c>
       <c r="H9">
-        <v>0.001778478424012797</v>
+        <v>0.001417414417900109</v>
       </c>
       <c r="I9">
-        <v>0.001888205832411671</v>
+        <v>0.001557151764348674</v>
       </c>
       <c r="J9">
-        <v>0.2682428312078287</v>
+        <v>0.2763693766300079</v>
       </c>
       <c r="K9">
-        <v>0.3063090644652284</v>
+        <v>0.2807579308811725</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1333774386315554</v>
       </c>
       <c r="M9">
-        <v>0.881120879478118</v>
+        <v>0.08177852687155074</v>
       </c>
       <c r="N9">
-        <v>0.2030325559986608</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2383171891639719</v>
+        <v>0.8803346307344952</v>
       </c>
       <c r="P9">
-        <v>0.8845516531883462</v>
+        <v>0.2105047751631091</v>
       </c>
       <c r="Q9">
-        <v>1.073944581890487</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2341826299220244</v>
+      </c>
+      <c r="R9">
+        <v>0.87699495317149</v>
+      </c>
+      <c r="S9">
+        <v>1.001814368854482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.212771620699499</v>
+        <v>1.163951944467101</v>
       </c>
       <c r="C10">
-        <v>0.1696560396323719</v>
+        <v>0.1618026075148933</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08290628849223047</v>
+        <v>0.07928050975762346</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.2668614608680215</v>
+        <v>0.2464012625945244</v>
       </c>
       <c r="H10">
-        <v>0.0009875067945817051</v>
+        <v>0.0008029216006706363</v>
       </c>
       <c r="I10">
-        <v>0.001326908632538704</v>
+        <v>0.001302679411444352</v>
       </c>
       <c r="J10">
-        <v>0.2624956229047726</v>
+        <v>0.2583846912845758</v>
       </c>
       <c r="K10">
-        <v>0.2977204518182006</v>
+        <v>0.2695268741573784</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1249857722594374</v>
       </c>
       <c r="M10">
-        <v>1.037710853636895</v>
+        <v>0.08315011669019157</v>
       </c>
       <c r="N10">
-        <v>0.2222539572433391</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.274653436193617</v>
+        <v>1.032382648002198</v>
       </c>
       <c r="P10">
-        <v>0.8572302006138202</v>
+        <v>0.2301017290536151</v>
       </c>
       <c r="Q10">
-        <v>1.06337863491315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.268987965907705</v>
+      </c>
+      <c r="R10">
+        <v>0.8590799642010012</v>
+      </c>
+      <c r="S10">
+        <v>0.9757678654660964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.235970018308365</v>
+        <v>1.18527485940939</v>
       </c>
       <c r="C11">
-        <v>0.1855475393806358</v>
+        <v>0.1779808565885617</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06123690219624756</v>
+        <v>0.05872345051434991</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.2363477328348864</v>
+        <v>0.2387527470373882</v>
       </c>
       <c r="H11">
-        <v>0.01967557253444596</v>
+        <v>0.01950123878190979</v>
       </c>
       <c r="I11">
-        <v>0.001746718841238781</v>
+        <v>0.001888810970036126</v>
       </c>
       <c r="J11">
-        <v>0.2440379314773793</v>
+        <v>0.2243909342131332</v>
       </c>
       <c r="K11">
-        <v>0.2692141104172379</v>
+        <v>0.242653658129198</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1142516737389068</v>
       </c>
       <c r="M11">
-        <v>1.108738526346514</v>
+        <v>0.07468793082453828</v>
       </c>
       <c r="N11">
-        <v>0.144765858782435</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2398801001193149</v>
+        <v>1.094785606606905</v>
       </c>
       <c r="P11">
-        <v>0.8753286714636204</v>
+        <v>0.1506430877742702</v>
       </c>
       <c r="Q11">
-        <v>0.9601661682370235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2340912732851237</v>
+      </c>
+      <c r="R11">
+        <v>0.8884470878408521</v>
+      </c>
+      <c r="S11">
+        <v>0.8674322105272125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.219733244386532</v>
+        <v>1.171646701885152</v>
       </c>
       <c r="C12">
-        <v>0.1985939901233138</v>
+        <v>0.1904569882414933</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04939358355840717</v>
+        <v>0.04754684827574529</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.2129127507774484</v>
+        <v>0.2250578565441899</v>
       </c>
       <c r="H12">
-        <v>0.05850021197017696</v>
+        <v>0.05831784055280309</v>
       </c>
       <c r="I12">
-        <v>0.001735490205067691</v>
+        <v>0.001884836336516038</v>
       </c>
       <c r="J12">
-        <v>0.2307604073792433</v>
+        <v>0.2110136777496727</v>
       </c>
       <c r="K12">
-        <v>0.2498253525548311</v>
+        <v>0.2259948835426755</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.108526934272283</v>
       </c>
       <c r="M12">
-        <v>1.135741083849894</v>
+        <v>0.06829675771036214</v>
       </c>
       <c r="N12">
-        <v>0.09077530415855506</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2054455298539608</v>
+        <v>1.117673226437205</v>
       </c>
       <c r="P12">
-        <v>0.9014637382511808</v>
+        <v>0.09524361131020243</v>
       </c>
       <c r="Q12">
-        <v>0.8827183762796551</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2001358331380239</v>
+      </c>
+      <c r="R12">
+        <v>0.9209156831569842</v>
+      </c>
+      <c r="S12">
+        <v>0.7946446087595831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.169239069890381</v>
+        <v>1.128303973595337</v>
       </c>
       <c r="C13">
-        <v>0.2104937917129348</v>
+        <v>0.2018213422227007</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04410725243208327</v>
+        <v>0.04271532862777705</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.192271364941881</v>
+        <v>0.2012948089031426</v>
       </c>
       <c r="H13">
-        <v>0.1144531817477343</v>
+        <v>0.1142398886785969</v>
       </c>
       <c r="I13">
-        <v>0.001769838632405651</v>
+        <v>0.001879958728075337</v>
       </c>
       <c r="J13">
-        <v>0.2199927930133825</v>
+        <v>0.2080115763254007</v>
       </c>
       <c r="K13">
-        <v>0.2350969577731092</v>
+        <v>0.2149976925100141</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1052820601610605</v>
       </c>
       <c r="M13">
-        <v>1.130185089795333</v>
+        <v>0.06308731683077617</v>
       </c>
       <c r="N13">
-        <v>0.05205094471381955</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.169149085689078</v>
+        <v>1.113066959380177</v>
       </c>
       <c r="P13">
-        <v>0.9349644374053128</v>
+        <v>0.05547482155158789</v>
       </c>
       <c r="Q13">
-        <v>0.8163802756444767</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.1648599368781092</v>
+      </c>
+      <c r="R13">
+        <v>0.9549058734936651</v>
+      </c>
+      <c r="S13">
+        <v>0.7419285844147936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.118030517697548</v>
+        <v>1.0840136529022</v>
       </c>
       <c r="C14">
-        <v>0.2186419170356686</v>
+        <v>0.2096689245617824</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04424912291191729</v>
+        <v>0.04312258865994867</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.1791814122188846</v>
+        <v>0.1815208421129242</v>
       </c>
       <c r="H14">
-        <v>0.1639593458288289</v>
+        <v>0.1637122173535488</v>
       </c>
       <c r="I14">
-        <v>0.001907634716487472</v>
+        <v>0.001981908819225886</v>
       </c>
       <c r="J14">
-        <v>0.2136060655463758</v>
+        <v>0.2089848589518475</v>
       </c>
       <c r="K14">
-        <v>0.2270357410919921</v>
+        <v>0.2096742265709688</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1038924531798919</v>
       </c>
       <c r="M14">
-        <v>1.11154425739403</v>
+        <v>0.0600815405849966</v>
       </c>
       <c r="N14">
-        <v>0.03411279423771951</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1433905955862365</v>
+        <v>1.097321694373846</v>
       </c>
       <c r="P14">
-        <v>0.9623283108027962</v>
+        <v>0.03697924194530522</v>
       </c>
       <c r="Q14">
-        <v>0.7752022642391125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1399843860605152</v>
+      </c>
+      <c r="R14">
+        <v>0.9793895633778078</v>
+      </c>
+      <c r="S14">
+        <v>0.7130423221376034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.097664108574776</v>
+        <v>1.06618040314504</v>
       </c>
       <c r="C15">
-        <v>0.2203351589366918</v>
+        <v>0.2113927272910701</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0447812276481212</v>
+        <v>0.04373096728909776</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.1762355748190494</v>
+        <v>0.1752199083599209</v>
       </c>
       <c r="H15">
-        <v>0.1765394977794159</v>
+        <v>0.1762756802412468</v>
       </c>
       <c r="I15">
-        <v>0.002077133455970603</v>
+        <v>0.002152865307951224</v>
       </c>
       <c r="J15">
-        <v>0.2124171317895147</v>
+        <v>0.2105794229696336</v>
       </c>
       <c r="K15">
-        <v>0.225687706030536</v>
+        <v>0.2090974702401205</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1038157779280104</v>
       </c>
       <c r="M15">
-        <v>1.100038195294985</v>
+        <v>0.0595094332656334</v>
       </c>
       <c r="N15">
-        <v>0.03097991638196973</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1364328855858759</v>
+        <v>1.087474194653453</v>
       </c>
       <c r="P15">
-        <v>0.9700730308259082</v>
+        <v>0.03374971353415823</v>
       </c>
       <c r="Q15">
-        <v>0.7664387449750976</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1333241139522698</v>
+      </c>
+      <c r="R15">
+        <v>0.9851508145756043</v>
+      </c>
+      <c r="S15">
+        <v>0.7085466591421792</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.029817146235331</v>
+        <v>1.005599546580726</v>
       </c>
       <c r="C16">
-        <v>0.2135899266248771</v>
+        <v>0.205371137319446</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04456794654029039</v>
+        <v>0.043656693900612</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.1796306437695456</v>
+        <v>0.1645535741346151</v>
       </c>
       <c r="H16">
-        <v>0.1641719270710809</v>
+        <v>0.1638174874267975</v>
       </c>
       <c r="I16">
-        <v>0.002445376047931269</v>
+        <v>0.00242559072386328</v>
       </c>
       <c r="J16">
-        <v>0.2166554925249358</v>
+        <v>0.225745166787469</v>
       </c>
       <c r="K16">
-        <v>0.2317385956052433</v>
+        <v>0.2161921181166688</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1065613310167008</v>
       </c>
       <c r="M16">
-        <v>1.033599921078547</v>
+        <v>0.06107207632755962</v>
       </c>
       <c r="N16">
-        <v>0.03156420087850087</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1290875192990946</v>
+        <v>1.028845550183462</v>
       </c>
       <c r="P16">
-        <v>0.9722953792213289</v>
+        <v>0.03457149582408015</v>
       </c>
       <c r="Q16">
-        <v>0.7823633328535067</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1267565788829934</v>
+      </c>
+      <c r="R16">
+        <v>0.9771256312369871</v>
+      </c>
+      <c r="S16">
+        <v>0.7357517760780894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.004793941391256</v>
+        <v>0.9819618698209638</v>
       </c>
       <c r="C17">
-        <v>0.2040102775918768</v>
+        <v>0.1961250474979579</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04371340255346912</v>
+        <v>0.04269987026824085</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.1890958518522723</v>
+        <v>0.1678703388914116</v>
       </c>
       <c r="H17">
-        <v>0.1265920304554982</v>
+        <v>0.1261856458509243</v>
       </c>
       <c r="I17">
-        <v>0.002684783676785152</v>
+        <v>0.002612727996310404</v>
       </c>
       <c r="J17">
-        <v>0.2232914719246324</v>
+        <v>0.2377580757557034</v>
       </c>
       <c r="K17">
-        <v>0.2405414516440629</v>
+        <v>0.224502217475127</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.109761825613127</v>
       </c>
       <c r="M17">
-        <v>0.9926564355638448</v>
+        <v>0.06363961962566478</v>
       </c>
       <c r="N17">
-        <v>0.04000691374379173</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1367420404832771</v>
+        <v>0.9912356934740387</v>
       </c>
       <c r="P17">
-        <v>0.9596171832238554</v>
+        <v>0.04347569053987854</v>
       </c>
       <c r="Q17">
-        <v>0.8162403779065528</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1345307359744865</v>
+      </c>
+      <c r="R17">
+        <v>0.9598723107716225</v>
+      </c>
+      <c r="S17">
+        <v>0.7715015608220028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.015257954260619</v>
+        <v>0.9897778052182957</v>
       </c>
       <c r="C18">
-        <v>0.1913640444615794</v>
+        <v>0.18368159178263</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04557343740409259</v>
+        <v>0.04417009719254095</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.2060139567035506</v>
+        <v>0.1807604922004913</v>
       </c>
       <c r="H18">
-        <v>0.07376077419627336</v>
+        <v>0.07334532104800218</v>
       </c>
       <c r="I18">
-        <v>0.002506080262398847</v>
+        <v>0.002371369403434187</v>
       </c>
       <c r="J18">
-        <v>0.2332667062183091</v>
+        <v>0.2496050659040741</v>
       </c>
       <c r="K18">
-        <v>0.2540077472740556</v>
+        <v>0.2362385459642287</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1142970761692732</v>
       </c>
       <c r="M18">
-        <v>0.9689475764162694</v>
+        <v>0.067739544628866</v>
       </c>
       <c r="N18">
-        <v>0.06395742537758764</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1595972575655651</v>
+        <v>0.9689243724906476</v>
       </c>
       <c r="P18">
-        <v>0.9344433118226263</v>
+        <v>0.06825229205219685</v>
       </c>
       <c r="Q18">
-        <v>0.8729580285113769</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1570521795771818</v>
+      </c>
+      <c r="R18">
+        <v>0.9327451271886957</v>
+      </c>
+      <c r="S18">
+        <v>0.824223958430764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.04997729385596</v>
+        <v>1.019118918489994</v>
       </c>
       <c r="C19">
-        <v>0.1796300723384547</v>
+        <v>0.1720258011594851</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05441111914125774</v>
+        <v>0.05230912523298414</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.2278027536075484</v>
+        <v>0.1992349899970236</v>
       </c>
       <c r="H19">
-        <v>0.02823828676575602</v>
+        <v>0.02786134658622075</v>
       </c>
       <c r="I19">
-        <v>0.002550617368060948</v>
+        <v>0.002464071388733835</v>
       </c>
       <c r="J19">
-        <v>0.2451151027911536</v>
+        <v>0.2610510295476871</v>
       </c>
       <c r="K19">
-        <v>0.2708522379841529</v>
+        <v>0.2503751520923334</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1197057882228538</v>
       </c>
       <c r="M19">
-        <v>0.9608345666014486</v>
+        <v>0.07296418351337053</v>
       </c>
       <c r="N19">
-        <v>0.1106319488912391</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.1948248682518212</v>
+        <v>0.9611769890906032</v>
       </c>
       <c r="P19">
-        <v>0.9064491675010942</v>
+        <v>0.1161609023114991</v>
       </c>
       <c r="Q19">
-        <v>0.9439655598186505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.1915900483033752</v>
+      </c>
+      <c r="R19">
+        <v>0.9039844871716127</v>
+      </c>
+      <c r="S19">
+        <v>0.8871471833981843</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.158676528607344</v>
+        <v>1.114836509032699</v>
       </c>
       <c r="C20">
-        <v>0.1682716825209383</v>
+        <v>0.1604582829632193</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0816083914024226</v>
+        <v>0.07802747881058991</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.2641658086926668</v>
+        <v>0.2355300675944889</v>
       </c>
       <c r="H20">
-        <v>0.001146734901938729</v>
+        <v>0.0009159223384647142</v>
       </c>
       <c r="I20">
-        <v>0.002240584298409232</v>
+        <v>0.002296145597322941</v>
       </c>
       <c r="J20">
-        <v>0.2626594052762883</v>
+        <v>0.2695347522552112</v>
       </c>
       <c r="K20">
-        <v>0.297670387020716</v>
+        <v>0.2712308741766769</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1266608441214743</v>
       </c>
       <c r="M20">
-        <v>0.9966304635196082</v>
+        <v>0.08221673805815755</v>
       </c>
       <c r="N20">
-        <v>0.2173333499553394</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2642114765149692</v>
+        <v>0.9947957562836223</v>
       </c>
       <c r="P20">
-        <v>0.8658832629299198</v>
+        <v>0.2251840127343883</v>
       </c>
       <c r="Q20">
-        <v>1.057913155403909</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2592068728952128</v>
+      </c>
+      <c r="R20">
+        <v>0.8644696108434005</v>
+      </c>
+      <c r="S20">
+        <v>0.9800146331703985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.308750685370171</v>
+        <v>1.246115204615279</v>
       </c>
       <c r="C21">
-        <v>0.1736847287513896</v>
+        <v>0.1653276016503753</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08888858845217484</v>
+        <v>0.08525418684911301</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.2711274497204954</v>
+        <v>0.2831765008969427</v>
       </c>
       <c r="H21">
-        <v>0.0003963426862430008</v>
+        <v>0.000298154277192153</v>
       </c>
       <c r="I21">
-        <v>0.00186219341716054</v>
+        <v>0.002104904508076544</v>
       </c>
       <c r="J21">
-        <v>0.2617004883561336</v>
+        <v>0.226151671479613</v>
       </c>
       <c r="K21">
-        <v>0.296402439680449</v>
+        <v>0.2626805454576555</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1206605472830145</v>
       </c>
       <c r="M21">
-        <v>1.116673704668415</v>
+        <v>0.08363367771217867</v>
       </c>
       <c r="N21">
-        <v>0.2495331579223716</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.301552884842188</v>
+        <v>1.099172636956041</v>
       </c>
       <c r="P21">
-        <v>0.8415207221634802</v>
+        <v>0.2575003965344251</v>
       </c>
       <c r="Q21">
-        <v>1.070934930050498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.2938190557680969</v>
+      </c>
+      <c r="R21">
+        <v>0.8530581903587446</v>
+      </c>
+      <c r="S21">
+        <v>0.9515682563674233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.405879214774046</v>
+        <v>1.330497669625572</v>
       </c>
       <c r="C22">
-        <v>0.1773701399101526</v>
+        <v>0.1685254648329249</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09216048446116787</v>
+        <v>0.08864188535495998</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.2751181367322815</v>
+        <v>0.3207676640635526</v>
       </c>
       <c r="H22">
-        <v>0.0001605383319573939</v>
+        <v>0.0001160437034126716</v>
       </c>
       <c r="I22">
-        <v>0.001454960181865417</v>
+        <v>0.001716897086237346</v>
       </c>
       <c r="J22">
-        <v>0.2608278852875117</v>
+        <v>0.2058796733576376</v>
       </c>
       <c r="K22">
-        <v>0.2951584224384085</v>
+        <v>0.2564615427277523</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1167649350530375</v>
       </c>
       <c r="M22">
-        <v>1.195064914654438</v>
+        <v>0.08448500748406929</v>
       </c>
       <c r="N22">
-        <v>0.2645879202874823</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3231317713093773</v>
+        <v>1.16612474153996</v>
       </c>
       <c r="P22">
-        <v>0.826927987306469</v>
+        <v>0.2724757942509086</v>
       </c>
       <c r="Q22">
-        <v>1.07773892837001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.313526960639436</v>
+      </c>
+      <c r="R22">
+        <v>0.8479294899537777</v>
+      </c>
+      <c r="S22">
+        <v>0.9294984316600647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.356440002945902</v>
+        <v>1.288822843181578</v>
       </c>
       <c r="C23">
-        <v>0.1750017239487676</v>
+        <v>0.1666360340608719</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09056875970744471</v>
+        <v>0.08690281621820972</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.2738295123483496</v>
+        <v>0.2958522999012274</v>
       </c>
       <c r="H23">
-        <v>0.0002711408821147732</v>
+        <v>0.0001996937546026034</v>
       </c>
       <c r="I23">
-        <v>0.001346683532021054</v>
+        <v>0.00153874569118706</v>
       </c>
       <c r="J23">
-        <v>0.2617256787914357</v>
+        <v>0.2187872239465101</v>
       </c>
       <c r="K23">
-        <v>0.2966018238119332</v>
+        <v>0.2610528566308083</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1192247419077699</v>
       </c>
       <c r="M23">
-        <v>1.153230388394121</v>
+        <v>0.08457394420155673</v>
       </c>
       <c r="N23">
-        <v>0.2563085632065167</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3118717328028495</v>
+        <v>1.132110961989355</v>
       </c>
       <c r="P23">
-        <v>0.8340238566834515</v>
+        <v>0.2643112486503441</v>
       </c>
       <c r="Q23">
-        <v>1.076796755402796</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3034513602843774</v>
+      </c>
+      <c r="R23">
+        <v>0.8488432897186513</v>
+      </c>
+      <c r="S23">
+        <v>0.9473997729199084</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.164887354339612</v>
+        <v>1.120508144391977</v>
       </c>
       <c r="C24">
-        <v>0.1667254198478716</v>
+        <v>0.1586763849341537</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08427256473527756</v>
+        <v>0.0805710314888799</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.2682340110463173</v>
+        <v>0.2389270066741602</v>
       </c>
       <c r="H24">
-        <v>0.0009778087222932497</v>
+        <v>0.0007534040034107292</v>
       </c>
       <c r="I24">
-        <v>0.001726694965957343</v>
+        <v>0.001685341019834752</v>
       </c>
       <c r="J24">
-        <v>0.2648337070714604</v>
+        <v>0.2718552080389642</v>
       </c>
       <c r="K24">
-        <v>0.3012351609936132</v>
+        <v>0.2743405514778985</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1278499826363984</v>
       </c>
       <c r="M24">
-        <v>0.9946857003058085</v>
+        <v>0.08336148496568185</v>
       </c>
       <c r="N24">
-        <v>0.225420273595887</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2687840948269553</v>
+        <v>0.9929789383599257</v>
       </c>
       <c r="P24">
-        <v>0.8632019353442715</v>
+        <v>0.2334462131813524</v>
       </c>
       <c r="Q24">
-        <v>1.071090228580687</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2637007908809608</v>
+      </c>
+      <c r="R24">
+        <v>0.8612368690267189</v>
+      </c>
+      <c r="S24">
+        <v>0.9921029268664512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9574131164929156</v>
+        <v>0.9266028819941425</v>
       </c>
       <c r="C25">
-        <v>0.1578342640084216</v>
+        <v>0.1467549195298474</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07744184526153752</v>
+        <v>0.07451412304268423</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.2636204348795346</v>
+        <v>0.2336885003739937</v>
       </c>
       <c r="H25">
-        <v>0.002303616484769289</v>
+        <v>0.001855697170072945</v>
       </c>
       <c r="I25">
-        <v>0.002749044352023056</v>
+        <v>0.002373432689349642</v>
       </c>
       <c r="J25">
-        <v>0.2690975631881685</v>
+        <v>0.2804987689780845</v>
       </c>
       <c r="K25">
-        <v>0.3072066915665097</v>
+        <v>0.2827351352444563</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1357605068098859</v>
       </c>
       <c r="M25">
-        <v>0.8233581475152789</v>
+        <v>0.08080377415586248</v>
       </c>
       <c r="N25">
-        <v>0.1922221693461879</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2222451614515606</v>
+        <v>0.8237540294451833</v>
       </c>
       <c r="P25">
-        <v>0.8971812924714335</v>
+        <v>0.199469160114468</v>
       </c>
       <c r="Q25">
-        <v>1.069837163397864</v>
+        <v>0.2186602899673176</v>
+      </c>
+      <c r="R25">
+        <v>0.8867715749487672</v>
+      </c>
+      <c r="S25">
+        <v>1.003059076369468</v>
       </c>
     </row>
   </sheetData>
